--- a/策划案/镇魂街/节奏总表.xlsx
+++ b/策划案/镇魂街/节奏总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -1690,6 +1690,21 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="4" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1734,21 +1749,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
@@ -2117,12 +2117,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2131,10 +2131,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2145,26 +2145,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2173,10 +2173,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2185,151 +2185,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2342,12 +2338,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2375,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CH112"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="Y12:AC12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2864,22 +2864,22 @@
         <v>5</v>
       </c>
       <c r="E6" s="13">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G6" s="13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H6" s="13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I6" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="13">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K6" s="13">
         <f t="shared" si="0"/>
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="13">
         <v>1</v>
@@ -3062,22 +3062,22 @@
         <v>15</v>
       </c>
       <c r="E7" s="13">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
-        <v>0.27</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="G7" s="13">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="H7" s="13">
-        <v>0.2</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="I7" s="13">
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
       <c r="J7" s="13">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" si="0"/>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="13">
         <v>2</v>
@@ -3260,22 +3260,22 @@
         <v>25</v>
       </c>
       <c r="E8" s="13">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F8" s="13">
-        <v>0.92999999999999994</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G8" s="13">
-        <v>0.9</v>
+        <v>1.41</v>
       </c>
       <c r="H8" s="13">
-        <v>0.7</v>
+        <v>0.52999999999999992</v>
       </c>
       <c r="I8" s="13">
-        <v>0.44</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J8" s="13">
-        <v>7.4999999999999997E-2</v>
+        <v>0.71</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" si="0"/>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="AC8" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="13">
         <v>3</v>
@@ -3458,22 +3458,22 @@
         <v>35</v>
       </c>
       <c r="E9" s="13">
-        <v>1.8</v>
+        <v>2.27</v>
       </c>
       <c r="F9" s="13">
-        <v>0.60000000000000009</v>
+        <v>1.27</v>
       </c>
       <c r="G9" s="13">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="H9" s="13">
-        <v>0.45000000000000007</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I9" s="13">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="J9" s="13">
-        <v>0.56000000000000005</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="K9" s="13">
         <f t="shared" si="0"/>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF9" s="13">
         <v>4</v>
@@ -3656,22 +3656,22 @@
         <v>35</v>
       </c>
       <c r="E10" s="13">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="F10" s="13">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="G10" s="13">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="H10" s="13">
-        <v>0.59999999999999987</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="I10" s="13">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="J10" s="13">
-        <v>0.43999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="K10" s="13">
         <f t="shared" si="0"/>
@@ -3733,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="AC10" s="13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF10" s="13">
         <v>5</v>
@@ -3854,26 +3854,26 @@
         <v>42</v>
       </c>
       <c r="E11" s="13">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="F11" s="13">
-        <v>1</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="G11" s="13">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="H11" s="13">
-        <v>0.75000000000000022</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="I11" s="13">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="J11" s="13">
-        <v>0.56000000000000005</v>
+        <v>0.56999999999999984</v>
       </c>
       <c r="K11" s="13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="1"/>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="13">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF11" s="13">
         <v>6</v>
@@ -4052,26 +4052,26 @@
         <v>47</v>
       </c>
       <c r="E12" s="13">
-        <v>4.7300000000000004</v>
+        <v>4.67</v>
       </c>
       <c r="F12" s="13">
-        <v>1.1300000000000003</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="G12" s="13">
-        <v>3.55</v>
+        <v>4.12</v>
       </c>
       <c r="H12" s="13">
-        <v>0.84999999999999964</v>
+        <v>0.77</v>
       </c>
       <c r="I12" s="13">
-        <v>2.63</v>
+        <v>3.33</v>
       </c>
       <c r="J12" s="13">
-        <v>0.62999999999999989</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="1"/>
@@ -4129,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="AC12" s="13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF12" s="13">
         <v>7</v>
@@ -4250,26 +4250,26 @@
         <v>52</v>
       </c>
       <c r="E13" s="13">
-        <v>5.93</v>
+        <v>5.67</v>
       </c>
       <c r="F13" s="13">
-        <v>1.1999999999999993</v>
+        <v>1</v>
       </c>
       <c r="G13" s="13">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="H13" s="13">
-        <v>0.90000000000000036</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="I13" s="13">
-        <v>3.3</v>
+        <v>4.05</v>
       </c>
       <c r="J13" s="13">
-        <v>0.66999999999999993</v>
+        <v>0.71999999999999975</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="1"/>
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="13">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF13" s="13">
         <v>8</v>
@@ -4448,26 +4448,26 @@
         <v>52</v>
       </c>
       <c r="E14" s="13">
-        <v>7.2</v>
+        <v>6.87</v>
       </c>
       <c r="F14" s="13">
-        <v>1.2700000000000005</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="G14" s="13">
-        <v>5.4</v>
+        <v>6.06</v>
       </c>
       <c r="H14" s="13">
-        <v>0.95000000000000018</v>
+        <v>1.0599999999999996</v>
       </c>
       <c r="I14" s="13">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J14" s="13">
-        <v>0.70000000000000018</v>
+        <v>0.85000000000000053</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="1"/>
@@ -4525,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="AC14" s="13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF14" s="13">
         <v>9</v>
@@ -4646,26 +4646,26 @@
         <v>57</v>
       </c>
       <c r="E15" s="13">
-        <v>8.73</v>
+        <v>8.23</v>
       </c>
       <c r="F15" s="13">
-        <v>1.5300000000000002</v>
+        <v>1.3600000000000003</v>
       </c>
       <c r="G15" s="13">
-        <v>6.55</v>
+        <v>7.26</v>
       </c>
       <c r="H15" s="13">
-        <v>1.1499999999999995</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I15" s="13">
-        <v>4.8499999999999996</v>
+        <v>5.88</v>
       </c>
       <c r="J15" s="13">
-        <v>0.84999999999999964</v>
+        <v>0.97999999999999954</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="1"/>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="13">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF15" s="13">
         <v>10</v>
@@ -4844,26 +4844,26 @@
         <v>65</v>
       </c>
       <c r="E16" s="13">
-        <v>10.53</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F16" s="13">
-        <v>1.7999999999999989</v>
+        <v>1.5700000000000003</v>
       </c>
       <c r="G16" s="13">
-        <v>7.9</v>
+        <v>8.65</v>
       </c>
       <c r="H16" s="13">
-        <v>1.3500000000000005</v>
+        <v>1.3900000000000006</v>
       </c>
       <c r="I16" s="13">
-        <v>5.85</v>
+        <v>7</v>
       </c>
       <c r="J16" s="13">
-        <v>1</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="1"/>
@@ -4921,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="AC16" s="13">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF16" s="13">
         <v>11</v>
@@ -5042,26 +5042,26 @@
         <v>72</v>
       </c>
       <c r="E17" s="13">
-        <v>12.6</v>
+        <v>11.83</v>
       </c>
       <c r="F17" s="13">
-        <v>2.0700000000000003</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="G17" s="13">
-        <v>9.4499999999999993</v>
+        <v>10.44</v>
       </c>
       <c r="H17" s="13">
-        <v>1.5499999999999989</v>
+        <v>1.7899999999999991</v>
       </c>
       <c r="I17" s="13">
-        <v>7</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="J17" s="13">
-        <v>1.1500000000000004</v>
+        <v>1.4499999999999993</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="1"/>
@@ -5119,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="13">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF17" s="13">
         <v>12</v>
@@ -5240,26 +5240,26 @@
         <v>72</v>
       </c>
       <c r="E18" s="13">
-        <v>15</v>
+        <v>14.23</v>
       </c>
       <c r="F18" s="13">
         <v>2.4000000000000004</v>
       </c>
       <c r="G18" s="13">
-        <v>11.25</v>
+        <v>12.56</v>
       </c>
       <c r="H18" s="13">
-        <v>1.8000000000000007</v>
+        <v>2.120000000000001</v>
       </c>
       <c r="I18" s="13">
-        <v>8.33</v>
+        <v>10.17</v>
       </c>
       <c r="J18" s="13">
-        <v>1.33</v>
+        <v>1.7200000000000006</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="1"/>
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="AC18" s="13">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AF18" s="13">
         <v>13</v>
@@ -5435,26 +5435,26 @@
         <v>80</v>
       </c>
       <c r="E19" s="13">
-        <v>17.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F19" s="13">
-        <v>2.8000000000000007</v>
+        <v>2.870000000000001</v>
       </c>
       <c r="G19" s="13">
-        <v>13.35</v>
+        <v>15.09</v>
       </c>
       <c r="H19" s="13">
-        <v>2.0999999999999996</v>
+        <v>2.5299999999999994</v>
       </c>
       <c r="I19" s="13">
-        <v>9.89</v>
+        <v>12.21</v>
       </c>
       <c r="J19" s="13">
-        <v>1.5600000000000005</v>
+        <v>2.0400000000000009</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="1"/>
@@ -5512,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="13">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AF19" s="13">
         <v>14</v>
@@ -5630,26 +5630,26 @@
         <v>87</v>
       </c>
       <c r="E20" s="13">
-        <v>21.27</v>
+        <v>20.47</v>
       </c>
       <c r="F20" s="13">
-        <v>3.4699999999999989</v>
+        <v>3.3699999999999974</v>
       </c>
       <c r="G20" s="13">
-        <v>15.95</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="H20" s="13">
-        <v>2.5999999999999996</v>
+        <v>2.9699999999999989</v>
       </c>
       <c r="I20" s="13">
-        <v>11.81</v>
+        <v>14.62</v>
       </c>
       <c r="J20" s="13">
-        <v>1.92</v>
+        <v>2.4099999999999984</v>
       </c>
       <c r="K20" s="13">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="1"/>
@@ -5707,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="AC20" s="13">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF20" s="13">
         <v>15</v>
@@ -5825,26 +5825,26 @@
         <v>95</v>
       </c>
       <c r="E21" s="13">
-        <v>25.2</v>
+        <v>24.07</v>
       </c>
       <c r="F21" s="13">
-        <v>3.9299999999999997</v>
+        <v>3.6000000000000014</v>
       </c>
       <c r="G21" s="13">
-        <v>18.899999999999999</v>
+        <v>21.24</v>
       </c>
       <c r="H21" s="13">
-        <v>2.9499999999999993</v>
+        <v>3.1799999999999997</v>
       </c>
       <c r="I21" s="13">
-        <v>14</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="J21" s="13">
-        <v>2.1899999999999995</v>
+        <v>2.5700000000000021</v>
       </c>
       <c r="K21" s="13">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="13">
         <f t="shared" si="1"/>
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="13">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AF21" s="13">
         <v>16</v>
@@ -6020,26 +6020,26 @@
         <v>95</v>
       </c>
       <c r="E22" s="13">
-        <v>29.33</v>
+        <v>27.93</v>
       </c>
       <c r="F22" s="13">
-        <v>4.129999999999999</v>
+        <v>3.8599999999999994</v>
       </c>
       <c r="G22" s="13">
-        <v>22</v>
+        <v>24.65</v>
       </c>
       <c r="H22" s="13">
-        <v>3.1000000000000014</v>
+        <v>3.41</v>
       </c>
       <c r="I22" s="13">
-        <v>16.3</v>
+        <v>19.95</v>
       </c>
       <c r="J22" s="13">
-        <v>2.3000000000000007</v>
+        <v>2.759999999999998</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="1"/>
@@ -6097,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="AC22" s="13">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AF22" s="13">
         <v>17</v>
@@ -6215,26 +6215,26 @@
         <v>102</v>
       </c>
       <c r="E23" s="13">
-        <v>33.729999999999997</v>
+        <v>31.97</v>
       </c>
       <c r="F23" s="13">
-        <v>4.3999999999999986</v>
+        <v>4.0399999999999991</v>
       </c>
       <c r="G23" s="13">
-        <v>25.3</v>
+        <v>28.21</v>
       </c>
       <c r="H23" s="13">
-        <v>3.3000000000000007</v>
+        <v>3.5600000000000023</v>
       </c>
       <c r="I23" s="13">
-        <v>18.739999999999998</v>
+        <v>22.83</v>
       </c>
       <c r="J23" s="13">
-        <v>2.4399999999999977</v>
+        <v>2.879999999999999</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="1"/>
@@ -6292,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="AC23" s="13">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AF23" s="13">
         <v>18</v>
@@ -6410,26 +6410,26 @@
         <v>102</v>
       </c>
       <c r="E24" s="13">
-        <v>38.4</v>
+        <v>36.17</v>
       </c>
       <c r="F24" s="13">
-        <v>4.6700000000000017</v>
+        <v>4.2000000000000028</v>
       </c>
       <c r="G24" s="13">
-        <v>28.8</v>
+        <v>31.91</v>
       </c>
       <c r="H24" s="13">
-        <v>3.5</v>
+        <v>3.6999999999999993</v>
       </c>
       <c r="I24" s="13">
-        <v>21.33</v>
+        <v>25.83</v>
       </c>
       <c r="J24" s="13">
-        <v>2.59</v>
+        <v>3</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="1"/>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="13">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF24" s="13">
         <v>19</v>
@@ -6605,26 +6605,26 @@
         <v>110</v>
       </c>
       <c r="E25" s="13">
-        <v>43.33</v>
+        <v>40.6</v>
       </c>
       <c r="F25" s="13">
-        <v>4.93</v>
+        <v>4.43</v>
       </c>
       <c r="G25" s="13">
-        <v>32.5</v>
+        <v>35.82</v>
       </c>
       <c r="H25" s="13">
-        <v>3.6999999999999993</v>
+        <v>3.91</v>
       </c>
       <c r="I25" s="13">
-        <v>24.07</v>
+        <v>29</v>
       </c>
       <c r="J25" s="13">
-        <v>2.740000000000002</v>
+        <v>3.1700000000000017</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="1"/>
@@ -6682,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="AC25" s="13">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF25" s="13">
         <v>20</v>
@@ -6772,26 +6772,26 @@
         <v>110</v>
       </c>
       <c r="E26" s="13">
-        <v>48.53</v>
+        <v>45.27</v>
       </c>
       <c r="F26" s="13">
-        <v>5.2000000000000028</v>
+        <v>4.6700000000000017</v>
       </c>
       <c r="G26" s="13">
-        <v>36.4</v>
+        <v>39.94</v>
       </c>
       <c r="H26" s="13">
-        <v>3.8999999999999986</v>
+        <v>4.1199999999999974</v>
       </c>
       <c r="I26" s="13">
-        <v>26.96</v>
+        <v>32.33</v>
       </c>
       <c r="J26" s="13">
-        <v>2.8900000000000006</v>
+        <v>3.3299999999999983</v>
       </c>
       <c r="K26" s="13">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="1"/>
@@ -6849,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="AC26" s="13">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AP26" s="13">
         <v>22</v>
@@ -6915,26 +6915,26 @@
         <v>117</v>
       </c>
       <c r="E27" s="13">
-        <v>54</v>
+        <v>50.47</v>
       </c>
       <c r="F27" s="13">
-        <v>5.4699999999999989</v>
+        <v>5.1999999999999957</v>
       </c>
       <c r="G27" s="13">
-        <v>40.5</v>
+        <v>44.53</v>
       </c>
       <c r="H27" s="13">
-        <v>4.1000000000000014</v>
+        <v>4.5900000000000034</v>
       </c>
       <c r="I27" s="13">
-        <v>30</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="J27" s="13">
-        <v>3.0399999999999991</v>
+        <v>3.7199999999999989</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="1"/>
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="13">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AP27" s="13">
         <v>23</v>
@@ -7058,26 +7058,26 @@
         <v>117</v>
       </c>
       <c r="E28" s="13">
-        <v>60.47</v>
+        <v>56.33</v>
       </c>
       <c r="F28" s="13">
-        <v>6.4699999999999989</v>
+        <v>5.8599999999999994</v>
       </c>
       <c r="G28" s="13">
-        <v>45.35</v>
+        <v>49.71</v>
       </c>
       <c r="H28" s="13">
-        <v>4.8500000000000014</v>
+        <v>5.18</v>
       </c>
       <c r="I28" s="13">
-        <v>33.590000000000003</v>
+        <v>40.24</v>
       </c>
       <c r="J28" s="13">
-        <v>3.5900000000000034</v>
+        <v>4.1900000000000048</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="1"/>
@@ -7135,7 +7135,7 @@
         <v>2</v>
       </c>
       <c r="AC28" s="13">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AP28" s="13">
         <v>24</v>
@@ -7201,26 +7201,26 @@
         <v>125</v>
       </c>
       <c r="E29" s="13">
-        <v>67.77</v>
+        <v>63.2</v>
       </c>
       <c r="F29" s="13">
-        <v>7.2999999999999972</v>
+        <v>6.8700000000000045</v>
       </c>
       <c r="G29" s="13">
-        <v>50.83</v>
+        <v>55.76</v>
       </c>
       <c r="H29" s="13">
-        <v>5.4799999999999969</v>
+        <v>6.0499999999999972</v>
       </c>
       <c r="I29" s="13">
-        <v>37.65</v>
+        <v>45.14</v>
       </c>
       <c r="J29" s="13">
-        <v>4.0599999999999952</v>
+        <v>4.8999999999999986</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="1"/>
@@ -7278,7 +7278,7 @@
         <v>3</v>
       </c>
       <c r="AC29" s="13">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AP29" s="13">
         <v>25</v>
@@ -7344,26 +7344,26 @@
         <v>132</v>
       </c>
       <c r="E30" s="13">
-        <v>76.13</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="F30" s="13">
-        <v>8.36</v>
+        <v>8.2000000000000028</v>
       </c>
       <c r="G30" s="13">
-        <v>57.1</v>
+        <v>63</v>
       </c>
       <c r="H30" s="13">
-        <v>6.2700000000000031</v>
+        <v>7.240000000000002</v>
       </c>
       <c r="I30" s="13">
-        <v>42.3</v>
+        <v>51</v>
       </c>
       <c r="J30" s="13">
-        <v>4.6499999999999986</v>
+        <v>5.8599999999999994</v>
       </c>
       <c r="K30" s="13">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="1"/>
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="13">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AP30" s="13">
         <v>26</v>
@@ -7487,26 +7487,26 @@
         <v>140</v>
       </c>
       <c r="E31" s="13">
-        <v>85.6</v>
+        <v>81.27</v>
       </c>
       <c r="F31" s="13">
-        <v>9.4699999999999989</v>
+        <v>9.8699999999999903</v>
       </c>
       <c r="G31" s="13">
-        <v>64.2</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="H31" s="13">
-        <v>7.1000000000000014</v>
+        <v>8.7099999999999937</v>
       </c>
       <c r="I31" s="13">
-        <v>47.56</v>
+        <v>58.05</v>
       </c>
       <c r="J31" s="13">
-        <v>5.2600000000000051</v>
+        <v>7.0499999999999972</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="1"/>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="AC31" s="13">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AP31" s="13">
         <v>27</v>
@@ -7630,26 +7630,26 @@
         <v>140</v>
       </c>
       <c r="E32" s="13">
-        <v>96.2</v>
+        <v>92.47</v>
       </c>
       <c r="F32" s="13">
-        <v>10.600000000000009</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="G32" s="13">
-        <v>72.150000000000006</v>
+        <v>81.59</v>
       </c>
       <c r="H32" s="13">
-        <v>7.9500000000000028</v>
+        <v>9.8800000000000097</v>
       </c>
       <c r="I32" s="13">
-        <v>53.44</v>
+        <v>66.05</v>
       </c>
       <c r="J32" s="13">
-        <v>5.8799999999999955</v>
+        <v>8</v>
       </c>
       <c r="K32" s="13">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="1"/>
@@ -7707,7 +7707,7 @@
         <v>3</v>
       </c>
       <c r="AC32" s="13">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AP32" s="13">
         <v>28</v>
@@ -7773,26 +7773,25 @@
         <v>140</v>
       </c>
       <c r="E33" s="13">
-        <v>108</v>
+        <v>140.33000000000001</v>
       </c>
       <c r="F33" s="13">
-        <v>11.799999999999997</v>
+        <v>47.860000000000014</v>
       </c>
       <c r="G33" s="13">
-        <v>81</v>
+        <v>123.82</v>
       </c>
       <c r="H33" s="13">
-        <v>8.8499999999999943</v>
+        <v>42.22999999999999</v>
       </c>
       <c r="I33" s="13">
-        <v>60</v>
+        <v>100.24</v>
       </c>
       <c r="J33" s="13">
-        <v>6.5600000000000023</v>
-      </c>
-      <c r="K33" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>34.19</v>
+      </c>
+      <c r="K33" s="13">
+        <v>52</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="1"/>
@@ -7850,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="13">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AP33" s="13">
         <v>29</v>
@@ -7915,13 +7914,27 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="E34" s="13">
+        <v>236.2</v>
+      </c>
+      <c r="F34" s="13">
+        <v>95.869999999999976</v>
+      </c>
+      <c r="G34" s="13">
+        <v>208.41</v>
+      </c>
+      <c r="H34" s="13">
+        <v>84.59</v>
+      </c>
+      <c r="I34" s="13">
+        <v>168.71</v>
+      </c>
+      <c r="J34" s="13">
+        <v>68.470000000000013</v>
+      </c>
+      <c r="K34" s="13">
+        <v>52</v>
+      </c>
       <c r="L34" s="13">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7978,7 +7991,7 @@
         <v>2</v>
       </c>
       <c r="AC34" s="13">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AP34" s="13">
         <v>30</v>
@@ -8043,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="AC35" s="13">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AP35" s="13">
         <v>31</v>
@@ -8108,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="13">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AP36" s="13">
         <v>32</v>
@@ -8173,7 +8186,7 @@
         <v>2</v>
       </c>
       <c r="AC37" s="13">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AP37" s="13">
         <v>33</v>
@@ -8238,7 +8251,7 @@
         <v>3</v>
       </c>
       <c r="AC38" s="13">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AP38" s="13">
         <v>34</v>
@@ -8303,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="13">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AP39" s="13">
         <v>35</v>
@@ -8368,7 +8381,7 @@
         <v>2</v>
       </c>
       <c r="AC40" s="13">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AP40" s="13">
         <v>36</v>
@@ -8433,7 +8446,7 @@
         <v>3</v>
       </c>
       <c r="AC41" s="13">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AP41" s="13">
         <v>37</v>
@@ -8498,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="13">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AP42" s="13">
         <v>38</v>
@@ -8563,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="AC43" s="13">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AP43" s="13">
         <v>39</v>
@@ -8628,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="AC44" s="13">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AP44" s="13">
         <v>40</v>
@@ -8693,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="13">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AP45" s="13">
         <v>41</v>
@@ -8758,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="AC46" s="13">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AP46" s="13">
         <v>42</v>
@@ -8823,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="AC47" s="13">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AP47" s="13">
         <v>43</v>
@@ -8888,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="13">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AP48" s="13">
         <v>44</v>
@@ -8953,7 +8966,7 @@
         <v>2</v>
       </c>
       <c r="AC49" s="13">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AP49" s="13">
         <v>45</v>
@@ -9018,7 +9031,7 @@
         <v>3</v>
       </c>
       <c r="AC50" s="13">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AP50" s="13">
         <v>46</v>
@@ -9083,7 +9096,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="13">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AP51" s="13">
         <v>47</v>
@@ -9148,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="AC52" s="13">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AP52" s="13">
         <v>48</v>
@@ -9213,7 +9226,7 @@
         <v>3</v>
       </c>
       <c r="AC53" s="13">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AP53" s="13">
         <v>49</v>
@@ -9278,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="13">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AP54" s="13">
         <v>50</v>
@@ -9343,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="AC55" s="13">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AP55" s="13">
         <v>51</v>
@@ -9408,7 +9421,7 @@
         <v>3</v>
       </c>
       <c r="AC56" s="13">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AP56" s="13">
         <v>52</v>
@@ -9473,7 +9486,7 @@
         <v>4</v>
       </c>
       <c r="AC57" s="13">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AP57" s="13">
         <v>53</v>
@@ -23985,8 +23998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24310,7 +24323,7 @@
       </c>
       <c r="G12" s="13">
         <f>MATCH(养成结点验证!F12,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="13">
         <f>MATCH($B12,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24353,7 +24366,7 @@
       </c>
       <c r="G13" s="13">
         <f>MATCH(养成结点验证!F13,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="13">
         <f>MATCH($B13,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24396,7 +24409,7 @@
       </c>
       <c r="G14" s="13">
         <f>MATCH(养成结点验证!F14,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="13">
         <f>MATCH($B14,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24439,7 +24452,7 @@
       </c>
       <c r="G15" s="13">
         <f>MATCH(养成结点验证!F15,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="13">
         <f>MATCH($B15,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24482,7 +24495,7 @@
       </c>
       <c r="G16" s="13">
         <f>MATCH(养成结点验证!F16,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="13">
         <f>MATCH($B16,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24525,7 +24538,7 @@
       </c>
       <c r="G17" s="13">
         <f>MATCH(养成结点验证!F17,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="13">
         <f>MATCH($B17,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24568,7 +24581,7 @@
       </c>
       <c r="G18" s="13">
         <f>MATCH(养成结点验证!F18,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="13">
         <f>MATCH($B18,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24580,7 +24593,7 @@
       </c>
       <c r="J18" s="13">
         <f>MATCH(养成结点验证!I18,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="13">
         <f>MATCH($B18,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24611,7 +24624,7 @@
       </c>
       <c r="G19" s="13">
         <f>MATCH(养成结点验证!F19,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" s="13">
         <f>MATCH($B19,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24654,7 +24667,7 @@
       </c>
       <c r="G20" s="13">
         <f>MATCH(养成结点验证!F20,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="13">
         <f>MATCH($B20,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24697,7 +24710,7 @@
       </c>
       <c r="G21" s="13">
         <f>MATCH(养成结点验证!F21,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" s="13">
         <f>MATCH($B21,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24709,7 +24722,7 @@
       </c>
       <c r="J21" s="13">
         <f>MATCH(养成结点验证!I21,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="13">
         <f>MATCH($B21,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24740,7 +24753,7 @@
       </c>
       <c r="G22" s="13">
         <f>MATCH(养成结点验证!F22,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="13">
         <f>MATCH($B22,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24783,7 +24796,7 @@
       </c>
       <c r="G23" s="13">
         <f>MATCH(养成结点验证!F23,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="13">
         <f>MATCH($B23,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24795,7 +24808,7 @@
       </c>
       <c r="J23" s="13">
         <f>MATCH(养成结点验证!I23,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23" s="13">
         <f>MATCH($B23,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24826,7 +24839,7 @@
       </c>
       <c r="G24" s="13">
         <f>MATCH(养成结点验证!F24,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="13">
         <f>MATCH($B24,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24838,7 +24851,7 @@
       </c>
       <c r="J24" s="13">
         <f>MATCH(养成结点验证!I24,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K24" s="13">
         <f>MATCH($B24,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24869,7 +24882,7 @@
       </c>
       <c r="G25" s="13">
         <f>MATCH(养成结点验证!F25,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" s="13">
         <f>MATCH($B25,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24912,7 +24925,7 @@
       </c>
       <c r="G26" s="13">
         <f>MATCH(养成结点验证!F26,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26" s="13">
         <f>MATCH($B26,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24955,7 +24968,7 @@
       </c>
       <c r="G27" s="13">
         <f>MATCH(养成结点验证!F27,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="13">
         <f>MATCH($B27,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24967,7 +24980,7 @@
       </c>
       <c r="J27" s="13">
         <f>MATCH(养成结点验证!I27,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27" s="13">
         <f>MATCH($B27,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -24998,7 +25011,7 @@
       </c>
       <c r="G28" s="13">
         <f>MATCH(养成结点验证!F28,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28" s="13">
         <f>MATCH($B28,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25010,7 +25023,7 @@
       </c>
       <c r="J28" s="13">
         <f>MATCH(养成结点验证!I28,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28" s="13">
         <f>MATCH($B28,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25041,7 +25054,7 @@
       </c>
       <c r="G29" s="13">
         <f>MATCH(养成结点验证!F29,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H29" s="13">
         <f>MATCH($B29,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25084,7 +25097,7 @@
       </c>
       <c r="G30" s="13">
         <f>MATCH(养成结点验证!F30,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H30" s="13">
         <f>MATCH($B30,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25127,7 +25140,7 @@
       </c>
       <c r="G31" s="13">
         <f>MATCH(养成结点验证!F31,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" s="13">
         <f>MATCH($B31,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25139,7 +25152,7 @@
       </c>
       <c r="J31" s="13">
         <f>MATCH(养成结点验证!I31,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31" s="13">
         <f>MATCH($B31,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25170,7 +25183,7 @@
       </c>
       <c r="G32" s="13">
         <f>MATCH(养成结点验证!F32,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" s="13">
         <f>MATCH($B32,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25213,7 +25226,7 @@
       </c>
       <c r="G33" s="13">
         <f>MATCH(养成结点验证!F33,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="13">
         <f>MATCH($B33,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25225,7 +25238,7 @@
       </c>
       <c r="J33" s="13">
         <f>MATCH(养成结点验证!I33,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" s="13">
         <f>MATCH($B33,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25268,7 +25281,7 @@
       </c>
       <c r="J34" s="13">
         <f>MATCH(养成结点验证!I34,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" s="13">
         <f>MATCH($B34,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25311,7 +25324,7 @@
       </c>
       <c r="J35" s="13">
         <f>MATCH(养成结点验证!I35,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" s="13">
         <f>MATCH($B35,时间节点!$AJ$5:$AJ$25,1)-1</f>
@@ -25354,7 +25367,7 @@
       </c>
       <c r="J36" s="13">
         <f>MATCH(养成结点验证!I36,时间节点!$AC$5:$AC$57,1)-1</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" s="13">
         <f>MATCH($B36,时间节点!$AJ$5:$AJ$25,1)-1</f>

--- a/策划案/镇魂街/节奏总表.xlsx
+++ b/策划案/镇魂街/节奏总表.xlsx
@@ -21,7 +21,6 @@
     <definedName name="玩家类型">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="404">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1452,6 +1451,32 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>等级段</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>极限停留</t>
+  </si>
+  <si>
+    <t>总停留</t>
+  </si>
+  <si>
+    <t>等级表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>时间等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1996,7 +2021,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2050,21 +2075,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2110,6 +2120,21 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,6 +2152,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2477,12 +2505,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2491,10 +2519,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2505,26 +2533,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2533,10 +2561,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2545,147 +2573,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2698,16 +2730,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2735,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BG5" sqref="BG5:BG24"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BZ4" sqref="BZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2760,7 +2788,10 @@
     <col min="69" max="69" width="15.625" customWidth="1"/>
     <col min="70" max="70" width="10.125" customWidth="1"/>
     <col min="71" max="71" width="12.25" customWidth="1"/>
+    <col min="72" max="72" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11.875" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="12.625" customWidth="1"/>
     <col min="80" max="80" width="11.625" customWidth="1"/>
     <col min="82" max="82" width="9" style="17"/>
@@ -2769,7 +2800,7 @@
     <col min="86" max="86" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:69" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>37</v>
       </c>
@@ -2838,8 +2869,19 @@
       <c r="BL3" s="41"/>
       <c r="BM3" s="41"/>
       <c r="BN3" s="41"/>
-    </row>
-    <row r="4" spans="1:69" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="BS3" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="BT3" s="41"/>
+      <c r="BU3" s="41"/>
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="41"/>
+      <c r="BZ3" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="CA3" s="47"/>
+    </row>
+    <row r="4" spans="1:79" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
@@ -3014,8 +3056,29 @@
       <c r="BN4" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS4" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="BT4" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="BU4" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV4" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="BW4" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="BZ4" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="CA4" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3193,8 +3256,29 @@
       <c r="BQ5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS5" s="13">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="13">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="BV5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="13">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -3217,10 +3301,10 @@
         <v>0.06</v>
       </c>
       <c r="H6" s="13">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I6" s="13">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="0"/>
@@ -3384,8 +3468,29 @@
       <c r="BQ6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS6" s="13">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="13">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="BV6" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="13">
+        <v>2</v>
+      </c>
+      <c r="CA6" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -3408,10 +3513,10 @@
         <v>0.82000000000000006</v>
       </c>
       <c r="H7" s="13">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="13">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" si="0"/>
@@ -3575,8 +3680,29 @@
       <c r="BQ7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS7" s="13">
+        <v>3</v>
+      </c>
+      <c r="BT7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="BV7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="13">
+        <v>3</v>
+      </c>
+      <c r="CA7" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -3599,7 +3725,7 @@
         <v>0.52999999999999992</v>
       </c>
       <c r="H8" s="13">
-        <v>1.1399999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="I8" s="13">
         <v>0.71</v>
@@ -3766,8 +3892,29 @@
       <c r="BQ8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS8" s="13">
+        <v>4</v>
+      </c>
+      <c r="BT8" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="13">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="BV8" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="13">
+        <v>4</v>
+      </c>
+      <c r="CA8" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -3790,10 +3937,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="H9" s="13">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="I9" s="13">
-        <v>1.1900000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="13">
         <f t="shared" si="0"/>
@@ -3957,8 +4104,29 @@
       <c r="BQ9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS9" s="13">
+        <v>5</v>
+      </c>
+      <c r="BT9" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="13">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="BV9" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CA9" s="13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -3981,10 +4149,10 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="H10" s="13">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="I10" s="13">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="0"/>
@@ -4148,8 +4316,29 @@
       <c r="BQ10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS10" s="13">
+        <v>6</v>
+      </c>
+      <c r="BT10" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="BV10" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="13">
+        <v>6</v>
+      </c>
+      <c r="CA10" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -4172,10 +4361,10 @@
         <v>0.70000000000000018</v>
       </c>
       <c r="H11" s="13">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
       <c r="I11" s="13">
-        <v>0.56999999999999984</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
@@ -4339,8 +4528,29 @@
       <c r="BQ11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS11" s="13">
+        <v>7</v>
+      </c>
+      <c r="BT11" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="13">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="BV11" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="13">
+        <v>7</v>
+      </c>
+      <c r="CA11" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -4363,10 +4573,10 @@
         <v>0.77</v>
       </c>
       <c r="H12" s="13">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
       <c r="I12" s="13">
-        <v>0.62000000000000011</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="0"/>
@@ -4530,8 +4740,29 @@
       <c r="BQ12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS12" s="13">
+        <v>8</v>
+      </c>
+      <c r="BT12" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="13">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="BV12" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="13">
+        <v>8</v>
+      </c>
+      <c r="CA12" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -4554,10 +4785,10 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="H13" s="13">
-        <v>4.05</v>
+        <v>4.17</v>
       </c>
       <c r="I13" s="13">
-        <v>0.71999999999999975</v>
+        <v>0.71</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" si="0"/>
@@ -4721,8 +4952,29 @@
       <c r="BQ13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS13" s="13">
+        <v>9</v>
+      </c>
+      <c r="BT13" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BV13" s="13">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="13">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="13">
+        <v>9</v>
+      </c>
+      <c r="CA13" s="13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -4745,10 +4997,10 @@
         <v>1.0599999999999996</v>
       </c>
       <c r="H14" s="13">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="I14" s="13">
-        <v>0.85000000000000053</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="0"/>
@@ -4912,8 +5164,29 @@
       <c r="BQ14" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="15" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS14" s="13">
+        <v>10</v>
+      </c>
+      <c r="BT14" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU14" s="13">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="BV14" s="13">
+        <v>1.0666666666666666E-2</v>
+      </c>
+      <c r="BW14" s="13">
+        <v>1.0666666666666666E-2</v>
+      </c>
+      <c r="BZ14" s="13">
+        <v>10</v>
+      </c>
+      <c r="CA14" s="13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -4936,10 +5209,10 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="H15" s="13">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="I15" s="13">
-        <v>0.97999999999999954</v>
+        <v>0.94000000000000039</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" si="0"/>
@@ -5103,8 +5376,29 @@
       <c r="BQ15" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="16" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS15" s="13">
+        <v>11</v>
+      </c>
+      <c r="BT15" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU15" s="13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BV15" s="13">
+        <v>1.3333333333333332E-2</v>
+      </c>
+      <c r="BW15" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="BZ15" s="13">
+        <v>11</v>
+      </c>
+      <c r="CA15" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -5130,7 +5424,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="13">
-        <v>1.1200000000000001</v>
+        <v>1.0599999999999996</v>
       </c>
       <c r="J16" s="13">
         <f t="shared" si="0"/>
@@ -5294,8 +5588,29 @@
       <c r="BQ16" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="17" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS16" s="13">
+        <v>12</v>
+      </c>
+      <c r="BT16" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU16" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV16" s="13">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BW16" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="BZ16" s="13">
+        <v>12</v>
+      </c>
+      <c r="CA16" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -5318,10 +5633,10 @@
         <v>1.7899999999999991</v>
       </c>
       <c r="H17" s="13">
-        <v>8.4499999999999993</v>
+        <v>8.35</v>
       </c>
       <c r="I17" s="13">
-        <v>1.4499999999999993</v>
+        <v>1.3499999999999996</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="0"/>
@@ -5485,8 +5800,29 @@
       <c r="BQ17" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS17" s="13">
+        <v>13</v>
+      </c>
+      <c r="BT17" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU17" s="13">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="BV17" s="13">
+        <v>1.8666666666666668E-2</v>
+      </c>
+      <c r="BW17" s="13">
+        <v>5.8666666666666673E-2</v>
+      </c>
+      <c r="BZ17" s="13">
+        <v>13</v>
+      </c>
+      <c r="CA17" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -5509,10 +5845,10 @@
         <v>2.120000000000001</v>
       </c>
       <c r="H18" s="13">
-        <v>10.17</v>
+        <v>9.94</v>
       </c>
       <c r="I18" s="13">
-        <v>1.7200000000000006</v>
+        <v>1.5899999999999999</v>
       </c>
       <c r="J18" s="13">
         <f t="shared" si="0"/>
@@ -5673,8 +6009,29 @@
       <c r="BN18" s="13" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="19" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS18" s="13">
+        <v>14</v>
+      </c>
+      <c r="BT18" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU18" s="13">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="BV18" s="13">
+        <v>2.1333333333333333E-2</v>
+      </c>
+      <c r="BW18" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="BZ18" s="13">
+        <v>14</v>
+      </c>
+      <c r="CA18" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -5697,10 +6054,10 @@
         <v>2.5299999999999994</v>
       </c>
       <c r="H19" s="13">
-        <v>12.21</v>
+        <v>11.81</v>
       </c>
       <c r="I19" s="13">
-        <v>2.0400000000000009</v>
+        <v>1.870000000000001</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
@@ -5861,8 +6218,29 @@
       <c r="BN19" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS19" s="13">
+        <v>15</v>
+      </c>
+      <c r="BT19" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU19" s="13">
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="BV19" s="13">
+        <v>3.428571428571428E-2</v>
+      </c>
+      <c r="BW19" s="13">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="BZ19" s="13">
+        <v>15</v>
+      </c>
+      <c r="CA19" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -5885,10 +6263,10 @@
         <v>2.9699999999999989</v>
       </c>
       <c r="H20" s="13">
-        <v>14.62</v>
+        <v>14</v>
       </c>
       <c r="I20" s="13">
-        <v>2.4099999999999984</v>
+        <v>2.1899999999999995</v>
       </c>
       <c r="J20" s="13">
         <f t="shared" si="0"/>
@@ -6049,8 +6427,29 @@
       <c r="BN20" s="13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS20" s="13">
+        <v>16</v>
+      </c>
+      <c r="BT20" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU20" s="13">
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="BV20" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BW20" s="13">
+        <v>0.15028571428571427</v>
+      </c>
+      <c r="BZ20" s="13">
+        <v>16</v>
+      </c>
+      <c r="CA20" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>17</v>
       </c>
@@ -6073,10 +6472,10 @@
         <v>3.1799999999999997</v>
       </c>
       <c r="H21" s="13">
-        <v>17.190000000000001</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="I21" s="13">
-        <v>2.5700000000000021</v>
+        <v>2.3299999999999983</v>
       </c>
       <c r="J21" s="13">
         <f t="shared" si="0"/>
@@ -6237,8 +6636,29 @@
       <c r="BN21" s="13" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS21" s="13">
+        <v>17</v>
+      </c>
+      <c r="BT21" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU21" s="13">
+        <v>8.9795918367346947E-2</v>
+      </c>
+      <c r="BV21" s="13">
+        <v>3.7714285714285714E-2</v>
+      </c>
+      <c r="BW21" s="13">
+        <v>0.188</v>
+      </c>
+      <c r="BZ21" s="13">
+        <v>17</v>
+      </c>
+      <c r="CA21" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -6261,10 +6681,10 @@
         <v>3.41</v>
       </c>
       <c r="H22" s="13">
-        <v>19.95</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="I22" s="13">
-        <v>2.759999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="13">
         <f t="shared" si="0"/>
@@ -6425,8 +6845,29 @@
       <c r="BN22" s="13" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS22" s="13">
+        <v>18</v>
+      </c>
+      <c r="BT22" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU22" s="13">
+        <v>9.3877551020408151E-2</v>
+      </c>
+      <c r="BV22" s="13">
+        <v>3.9428571428571424E-2</v>
+      </c>
+      <c r="BW22" s="13">
+        <v>0.22742857142857142</v>
+      </c>
+      <c r="BZ22" s="13">
+        <v>18</v>
+      </c>
+      <c r="CA22" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>19</v>
       </c>
@@ -6449,10 +6890,10 @@
         <v>3.5600000000000023</v>
       </c>
       <c r="H23" s="13">
-        <v>22.83</v>
+        <v>21.44</v>
       </c>
       <c r="I23" s="13">
-        <v>2.879999999999999</v>
+        <v>2.610000000000003</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="0"/>
@@ -6613,8 +7054,29 @@
       <c r="BN23" s="13" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="24" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS23" s="13">
+        <v>19</v>
+      </c>
+      <c r="BT23" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU23" s="13">
+        <v>9.7959183673469383E-2</v>
+      </c>
+      <c r="BV23" s="13">
+        <v>4.1142857142857141E-2</v>
+      </c>
+      <c r="BW23" s="13">
+        <v>0.26857142857142857</v>
+      </c>
+      <c r="BZ23" s="13">
+        <v>19</v>
+      </c>
+      <c r="CA23" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -6637,10 +7099,10 @@
         <v>3.6999999999999993</v>
       </c>
       <c r="H24" s="13">
-        <v>25.83</v>
+        <v>24.15</v>
       </c>
       <c r="I24" s="13">
-        <v>3</v>
+        <v>2.7099999999999973</v>
       </c>
       <c r="J24" s="13">
         <f t="shared" si="0"/>
@@ -6801,8 +7263,29 @@
       <c r="BN24" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="25" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS24" s="13">
+        <v>20</v>
+      </c>
+      <c r="BT24" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU24" s="13">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="BV24" s="13">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="BW24" s="13">
+        <v>0.31142857142857144</v>
+      </c>
+      <c r="BZ24" s="13">
+        <v>20</v>
+      </c>
+      <c r="CA24" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>21</v>
       </c>
@@ -6825,10 +7308,10 @@
         <v>3.91</v>
       </c>
       <c r="H25" s="13">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I25" s="13">
-        <v>3.1700000000000017</v>
+        <v>2.8500000000000014</v>
       </c>
       <c r="J25" s="13">
         <f t="shared" si="0"/>
@@ -6961,8 +7444,29 @@
       <c r="BC25" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS25" s="13">
+        <v>21</v>
+      </c>
+      <c r="BT25" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU25" s="13">
+        <v>0.10612244897959185</v>
+      </c>
+      <c r="BV25" s="13">
+        <v>4.4571428571428574E-2</v>
+      </c>
+      <c r="BW25" s="13">
+        <v>0.35600000000000004</v>
+      </c>
+      <c r="BZ25" s="13">
+        <v>21</v>
+      </c>
+      <c r="CA25" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -6985,10 +7489,10 @@
         <v>4.1199999999999974</v>
       </c>
       <c r="H26" s="13">
-        <v>32.33</v>
+        <v>30</v>
       </c>
       <c r="I26" s="13">
-        <v>3.3299999999999983</v>
+        <v>3</v>
       </c>
       <c r="J26" s="13">
         <f t="shared" si="0"/>
@@ -7100,8 +7604,29 @@
       <c r="BC26" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS26" s="13">
+        <v>22</v>
+      </c>
+      <c r="BT26" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU26" s="13">
+        <v>0.11020408163265306</v>
+      </c>
+      <c r="BV26" s="13">
+        <v>4.6285714285714284E-2</v>
+      </c>
+      <c r="BW26" s="13">
+        <v>0.4022857142857143</v>
+      </c>
+      <c r="BZ26" s="13">
+        <v>22</v>
+      </c>
+      <c r="CA26" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>23</v>
       </c>
@@ -7124,10 +7649,10 @@
         <v>4.5900000000000034</v>
       </c>
       <c r="H27" s="13">
-        <v>36.049999999999997</v>
+        <v>33.33</v>
       </c>
       <c r="I27" s="13">
-        <v>3.7199999999999989</v>
+        <v>3.3299999999999983</v>
       </c>
       <c r="J27" s="13">
         <f t="shared" si="0"/>
@@ -7239,8 +7764,29 @@
       <c r="BC27" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS27" s="13">
+        <v>23</v>
+      </c>
+      <c r="BT27" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="13">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="BV27" s="13">
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="BW27" s="13">
+        <v>0.45028571428571429</v>
+      </c>
+      <c r="BZ27" s="13">
+        <v>23</v>
+      </c>
+      <c r="CA27" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>24</v>
       </c>
@@ -7263,10 +7809,10 @@
         <v>5.18</v>
       </c>
       <c r="H28" s="13">
-        <v>40.24</v>
+        <v>37.08</v>
       </c>
       <c r="I28" s="13">
-        <v>4.1900000000000048</v>
+        <v>3.75</v>
       </c>
       <c r="J28" s="13">
         <f t="shared" si="0"/>
@@ -7378,8 +7924,29 @@
       <c r="BC28" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS28" s="13">
+        <v>24</v>
+      </c>
+      <c r="BT28" s="13">
+        <v>3</v>
+      </c>
+      <c r="BU28" s="13">
+        <v>0.1183673469387755</v>
+      </c>
+      <c r="BV28" s="13">
+        <v>4.9714285714285711E-2</v>
+      </c>
+      <c r="BW28" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BZ28" s="13">
+        <v>24</v>
+      </c>
+      <c r="CA28" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>25</v>
       </c>
@@ -7402,10 +7969,10 @@
         <v>6.0499999999999972</v>
       </c>
       <c r="H29" s="13">
-        <v>45.14</v>
+        <v>41.46</v>
       </c>
       <c r="I29" s="13">
-        <v>4.8999999999999986</v>
+        <v>4.3800000000000026</v>
       </c>
       <c r="J29" s="13">
         <f t="shared" si="0"/>
@@ -7517,8 +8084,29 @@
       <c r="BC29" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS29" s="13">
+        <v>25</v>
+      </c>
+      <c r="BT29" s="13">
+        <v>4</v>
+      </c>
+      <c r="BU29" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV29" s="13">
+        <v>0.12909090909090909</v>
+      </c>
+      <c r="BW29" s="13">
+        <v>0.62909090909090915</v>
+      </c>
+      <c r="BZ29" s="13">
+        <v>25</v>
+      </c>
+      <c r="CA29" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>26</v>
       </c>
@@ -7541,10 +8129,10 @@
         <v>7.240000000000002</v>
       </c>
       <c r="H30" s="13">
-        <v>51</v>
+        <v>46.67</v>
       </c>
       <c r="I30" s="13">
-        <v>5.8599999999999994</v>
+        <v>5.2100000000000009</v>
       </c>
       <c r="J30" s="13">
         <f t="shared" si="0"/>
@@ -7656,8 +8244,29 @@
       <c r="BC30" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS30" s="13">
+        <v>26</v>
+      </c>
+      <c r="BT30" s="13">
+        <v>4</v>
+      </c>
+      <c r="BU30" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV30" s="13">
+        <v>0.13554545454545455</v>
+      </c>
+      <c r="BW30" s="13">
+        <v>0.76463636363636367</v>
+      </c>
+      <c r="BZ30" s="13">
+        <v>26</v>
+      </c>
+      <c r="CA30" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>27</v>
       </c>
@@ -7680,10 +8289,10 @@
         <v>8.7099999999999937</v>
       </c>
       <c r="H31" s="13">
-        <v>58.05</v>
+        <v>52.92</v>
       </c>
       <c r="I31" s="13">
-        <v>7.0499999999999972</v>
+        <v>6.25</v>
       </c>
       <c r="J31" s="13">
         <f t="shared" si="0"/>
@@ -7795,8 +8404,29 @@
       <c r="BC31" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:69" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS31" s="13">
+        <v>27</v>
+      </c>
+      <c r="BT31" s="13">
+        <v>4</v>
+      </c>
+      <c r="BU31" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV31" s="13">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="BW31" s="13">
+        <v>0.90663636363636368</v>
+      </c>
+      <c r="BZ31" s="13">
+        <v>27</v>
+      </c>
+      <c r="CA31" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -7819,10 +8449,10 @@
         <v>9.8800000000000097</v>
       </c>
       <c r="H32" s="13">
-        <v>66.05</v>
+        <v>60</v>
       </c>
       <c r="I32" s="13">
-        <v>8</v>
+        <v>7.0799999999999983</v>
       </c>
       <c r="J32" s="13">
         <f t="shared" si="0"/>
@@ -7934,8 +8564,29 @@
       <c r="BC32" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS32" s="13">
+        <v>28</v>
+      </c>
+      <c r="BT32" s="13">
+        <v>4</v>
+      </c>
+      <c r="BU32" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV32" s="13">
+        <v>0.14845454545454545</v>
+      </c>
+      <c r="BW32" s="13">
+        <v>1.0550909090909091</v>
+      </c>
+      <c r="BZ32" s="13">
+        <v>28</v>
+      </c>
+      <c r="CA32" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>29</v>
       </c>
@@ -7958,10 +8609,10 @@
         <v>42.22999999999999</v>
       </c>
       <c r="H33" s="13">
-        <v>100.24</v>
+        <v>90</v>
       </c>
       <c r="I33" s="13">
-        <v>34.19</v>
+        <v>30</v>
       </c>
       <c r="J33" s="13">
         <v>52</v>
@@ -8072,8 +8723,29 @@
       <c r="BC33" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS33" s="13">
+        <v>29</v>
+      </c>
+      <c r="BT33" s="13">
+        <v>4</v>
+      </c>
+      <c r="BU33" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV33" s="13">
+        <v>0.15490909090909089</v>
+      </c>
+      <c r="BW33" s="13">
+        <v>1.21</v>
+      </c>
+      <c r="BZ33" s="13">
+        <v>29</v>
+      </c>
+      <c r="CA33" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -8096,10 +8768,10 @@
         <v>84.59</v>
       </c>
       <c r="H34" s="13">
-        <v>168.71</v>
+        <v>150</v>
       </c>
       <c r="I34" s="13">
-        <v>68.470000000000013</v>
+        <v>60</v>
       </c>
       <c r="J34" s="13">
         <v>52</v>
@@ -8210,8 +8882,29 @@
       <c r="BC34" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS34" s="13">
+        <v>30</v>
+      </c>
+      <c r="BT34" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU34" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV34" s="13">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="BW34" s="13">
+        <v>1.3009090909090908</v>
+      </c>
+      <c r="BZ34" s="13">
+        <v>30</v>
+      </c>
+      <c r="CA34" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X35" s="13">
         <v>30</v>
       </c>
@@ -8275,8 +8968,29 @@
       <c r="BC35" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS35" s="13">
+        <v>31</v>
+      </c>
+      <c r="BT35" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU35" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV35" s="13">
+        <v>9.5454545454545459E-2</v>
+      </c>
+      <c r="BW35" s="13">
+        <v>1.3963636363636363</v>
+      </c>
+      <c r="BZ35" s="13">
+        <v>31</v>
+      </c>
+      <c r="CA35" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X36" s="13">
         <v>31</v>
       </c>
@@ -8340,8 +9054,29 @@
       <c r="BC36" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS36" s="13">
+        <v>32</v>
+      </c>
+      <c r="BT36" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU36" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV36" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="BW36" s="13">
+        <v>1.4963636363636363</v>
+      </c>
+      <c r="BZ36" s="13">
+        <v>32</v>
+      </c>
+      <c r="CA36" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X37" s="13">
         <v>32</v>
       </c>
@@ -8405,8 +9140,29 @@
       <c r="BC37" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS37" s="13">
+        <v>33</v>
+      </c>
+      <c r="BT37" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU37" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV37" s="13">
+        <v>0.10454545454545454</v>
+      </c>
+      <c r="BW37" s="13">
+        <v>1.6009090909090908</v>
+      </c>
+      <c r="BZ37" s="13">
+        <v>33</v>
+      </c>
+      <c r="CA37" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X38" s="13">
         <v>33</v>
       </c>
@@ -8470,8 +9226,29 @@
       <c r="BC38" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS38" s="13">
+        <v>34</v>
+      </c>
+      <c r="BT38" s="13">
+        <v>5</v>
+      </c>
+      <c r="BU38" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV38" s="13">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="BW38" s="13">
+        <v>1.71</v>
+      </c>
+      <c r="BZ38" s="13">
+        <v>34</v>
+      </c>
+      <c r="CA38" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X39" s="13">
         <v>34</v>
       </c>
@@ -8535,8 +9312,29 @@
       <c r="BC39" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS39" s="13">
+        <v>35</v>
+      </c>
+      <c r="BT39" s="13">
+        <v>6</v>
+      </c>
+      <c r="BU39" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV39" s="13">
+        <v>9.818181818181819E-2</v>
+      </c>
+      <c r="BW39" s="13">
+        <v>1.8081818181818181</v>
+      </c>
+      <c r="BZ39" s="13">
+        <v>35</v>
+      </c>
+      <c r="CA39" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X40" s="13">
         <v>35</v>
       </c>
@@ -8600,8 +9398,29 @@
       <c r="BC40" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS40" s="13">
+        <v>36</v>
+      </c>
+      <c r="BT40" s="13">
+        <v>6</v>
+      </c>
+      <c r="BU40" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV40" s="13">
+        <v>0.10309090909090911</v>
+      </c>
+      <c r="BW40" s="13">
+        <v>1.9112727272727272</v>
+      </c>
+      <c r="BZ40" s="13">
+        <v>36</v>
+      </c>
+      <c r="CA40" s="13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X41" s="13">
         <v>36</v>
       </c>
@@ -8665,8 +9484,29 @@
       <c r="BC41" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS41" s="13">
+        <v>37</v>
+      </c>
+      <c r="BT41" s="13">
+        <v>6</v>
+      </c>
+      <c r="BU41" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV41" s="13">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="BW41" s="13">
+        <v>2.0192727272727273</v>
+      </c>
+      <c r="BZ41" s="13">
+        <v>37</v>
+      </c>
+      <c r="CA41" s="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X42" s="13">
         <v>37</v>
       </c>
@@ -8730,8 +9570,29 @@
       <c r="BC42" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS42" s="13">
+        <v>38</v>
+      </c>
+      <c r="BT42" s="13">
+        <v>6</v>
+      </c>
+      <c r="BU42" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV42" s="13">
+        <v>0.1129090909090909</v>
+      </c>
+      <c r="BW42" s="13">
+        <v>2.1321818181818184</v>
+      </c>
+      <c r="BZ42" s="13">
+        <v>38</v>
+      </c>
+      <c r="CA42" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X43" s="13">
         <v>38</v>
       </c>
@@ -8795,8 +9656,29 @@
       <c r="BC43" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS43" s="13">
+        <v>39</v>
+      </c>
+      <c r="BT43" s="13">
+        <v>6</v>
+      </c>
+      <c r="BU43" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV43" s="13">
+        <v>0.11781818181818182</v>
+      </c>
+      <c r="BW43" s="13">
+        <v>2.25</v>
+      </c>
+      <c r="BZ43" s="13">
+        <v>39</v>
+      </c>
+      <c r="CA43" s="13">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X44" s="13">
         <v>39</v>
       </c>
@@ -8860,8 +9742,29 @@
       <c r="BC44" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS44" s="13">
+        <v>40</v>
+      </c>
+      <c r="BT44" s="13">
+        <v>7</v>
+      </c>
+      <c r="BU44" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV44" s="13">
+        <v>0.10545454545454547</v>
+      </c>
+      <c r="BW44" s="13">
+        <v>2.3554545454545455</v>
+      </c>
+      <c r="BZ44" s="13">
+        <v>40</v>
+      </c>
+      <c r="CA44" s="13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X45" s="13">
         <v>40</v>
       </c>
@@ -8925,8 +9828,29 @@
       <c r="BC45" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS45" s="13">
+        <v>41</v>
+      </c>
+      <c r="BT45" s="13">
+        <v>7</v>
+      </c>
+      <c r="BU45" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV45" s="13">
+        <v>0.11072727272727274</v>
+      </c>
+      <c r="BW45" s="13">
+        <v>2.466181818181818</v>
+      </c>
+      <c r="BZ45" s="13">
+        <v>41</v>
+      </c>
+      <c r="CA45" s="13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X46" s="13">
         <v>41</v>
       </c>
@@ -8990,8 +9914,29 @@
       <c r="BC46" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS46" s="13">
+        <v>42</v>
+      </c>
+      <c r="BT46" s="13">
+        <v>7</v>
+      </c>
+      <c r="BU46" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV46" s="13">
+        <v>0.11600000000000002</v>
+      </c>
+      <c r="BW46" s="13">
+        <v>2.5821818181818181</v>
+      </c>
+      <c r="BZ46" s="13">
+        <v>42</v>
+      </c>
+      <c r="CA46" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X47" s="13">
         <v>42</v>
       </c>
@@ -9055,8 +10000,29 @@
       <c r="BC47" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS47" s="13">
+        <v>43</v>
+      </c>
+      <c r="BT47" s="13">
+        <v>7</v>
+      </c>
+      <c r="BU47" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV47" s="13">
+        <v>0.12127272727272728</v>
+      </c>
+      <c r="BW47" s="13">
+        <v>2.7034545454545453</v>
+      </c>
+      <c r="BZ47" s="13">
+        <v>43</v>
+      </c>
+      <c r="CA47" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X48" s="13">
         <v>43</v>
       </c>
@@ -9120,8 +10086,29 @@
       <c r="BC48" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS48" s="13">
+        <v>44</v>
+      </c>
+      <c r="BT48" s="13">
+        <v>7</v>
+      </c>
+      <c r="BU48" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV48" s="13">
+        <v>0.12654545454545454</v>
+      </c>
+      <c r="BW48" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="BZ48" s="13">
+        <v>44</v>
+      </c>
+      <c r="CA48" s="13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X49" s="13">
         <v>44</v>
       </c>
@@ -9185,8 +10172,29 @@
       <c r="BC49" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS49" s="13">
+        <v>45</v>
+      </c>
+      <c r="BT49" s="13">
+        <v>8</v>
+      </c>
+      <c r="BU49" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV49" s="13">
+        <v>0.11454545454545453</v>
+      </c>
+      <c r="BW49" s="13">
+        <v>2.9445454545454548</v>
+      </c>
+      <c r="BZ49" s="13">
+        <v>45</v>
+      </c>
+      <c r="CA49" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X50" s="13">
         <v>45</v>
       </c>
@@ -9250,8 +10258,29 @@
       <c r="BC50" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS50" s="13">
+        <v>46</v>
+      </c>
+      <c r="BT50" s="13">
+        <v>8</v>
+      </c>
+      <c r="BU50" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV50" s="13">
+        <v>0.12027272727272725</v>
+      </c>
+      <c r="BW50" s="13">
+        <v>3.0648181818181821</v>
+      </c>
+      <c r="BZ50" s="13">
+        <v>46</v>
+      </c>
+      <c r="CA50" s="13">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X51" s="13">
         <v>46</v>
       </c>
@@ -9315,8 +10344,29 @@
       <c r="BC51" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS51" s="13">
+        <v>47</v>
+      </c>
+      <c r="BT51" s="13">
+        <v>8</v>
+      </c>
+      <c r="BU51" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV51" s="13">
+        <v>0.12599999999999997</v>
+      </c>
+      <c r="BW51" s="13">
+        <v>3.190818181818182</v>
+      </c>
+      <c r="BZ51" s="13">
+        <v>47</v>
+      </c>
+      <c r="CA51" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X52" s="13">
         <v>47</v>
       </c>
@@ -9380,8 +10430,29 @@
       <c r="BC52" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS52" s="13">
+        <v>48</v>
+      </c>
+      <c r="BT52" s="13">
+        <v>8</v>
+      </c>
+      <c r="BU52" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV52" s="13">
+        <v>0.13172727272727269</v>
+      </c>
+      <c r="BW52" s="13">
+        <v>3.3225454545454545</v>
+      </c>
+      <c r="BZ52" s="13">
+        <v>48</v>
+      </c>
+      <c r="CA52" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X53" s="13">
         <v>48</v>
       </c>
@@ -9445,8 +10516,29 @@
       <c r="BC53" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS53" s="13">
+        <v>49</v>
+      </c>
+      <c r="BT53" s="13">
+        <v>8</v>
+      </c>
+      <c r="BU53" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV53" s="13">
+        <v>0.13745454545454541</v>
+      </c>
+      <c r="BW53" s="13">
+        <v>3.46</v>
+      </c>
+      <c r="BZ53" s="13">
+        <v>49</v>
+      </c>
+      <c r="CA53" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X54" s="13">
         <v>49</v>
       </c>
@@ -9510,8 +10602,29 @@
       <c r="BC54" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS54" s="13">
+        <v>50</v>
+      </c>
+      <c r="BT54" s="13">
+        <v>9</v>
+      </c>
+      <c r="BU54" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV54" s="13">
+        <v>0.12909090909090909</v>
+      </c>
+      <c r="BW54" s="13">
+        <v>3.5890909090909089</v>
+      </c>
+      <c r="BZ54" s="13">
+        <v>50</v>
+      </c>
+      <c r="CA54" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X55" s="13">
         <v>50</v>
       </c>
@@ -9575,8 +10688,29 @@
       <c r="BC55" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS55" s="13">
+        <v>51</v>
+      </c>
+      <c r="BT55" s="13">
+        <v>9</v>
+      </c>
+      <c r="BU55" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV55" s="13">
+        <v>0.13554545454545455</v>
+      </c>
+      <c r="BW55" s="13">
+        <v>3.7246363636363635</v>
+      </c>
+      <c r="BZ55" s="13">
+        <v>51</v>
+      </c>
+      <c r="CA55" s="13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X56" s="13">
         <v>51</v>
       </c>
@@ -9640,8 +10774,29 @@
       <c r="BC56" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS56" s="13">
+        <v>52</v>
+      </c>
+      <c r="BT56" s="13">
+        <v>9</v>
+      </c>
+      <c r="BU56" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV56" s="13">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="BW56" s="13">
+        <v>3.8666363636363634</v>
+      </c>
+      <c r="BZ56" s="13">
+        <v>52</v>
+      </c>
+      <c r="CA56" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="X57" s="13">
         <v>52</v>
       </c>
@@ -9705,8 +10860,29 @@
       <c r="BC57" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS57" s="13">
+        <v>53</v>
+      </c>
+      <c r="BT57" s="13">
+        <v>9</v>
+      </c>
+      <c r="BU57" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV57" s="13">
+        <v>0.14845454545454545</v>
+      </c>
+      <c r="BW57" s="13">
+        <v>4.015090909090909</v>
+      </c>
+      <c r="BZ57" s="13">
+        <v>53</v>
+      </c>
+      <c r="CA57" s="13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN58" s="13">
         <v>54</v>
       </c>
@@ -9755,8 +10931,29 @@
       <c r="BC58" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS58" s="13">
+        <v>54</v>
+      </c>
+      <c r="BT58" s="13">
+        <v>9</v>
+      </c>
+      <c r="BU58" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV58" s="13">
+        <v>0.15490909090909089</v>
+      </c>
+      <c r="BW58" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="BZ58" s="13">
+        <v>54</v>
+      </c>
+      <c r="CA58" s="13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN59" s="13">
         <v>55</v>
       </c>
@@ -9805,8 +11002,29 @@
       <c r="BC59" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS59" s="13">
+        <v>55</v>
+      </c>
+      <c r="BT59" s="13">
+        <v>10</v>
+      </c>
+      <c r="BU59" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV59" s="13">
+        <v>0.15090909090909094</v>
+      </c>
+      <c r="BW59" s="13">
+        <v>4.3209090909090913</v>
+      </c>
+      <c r="BZ59" s="13">
+        <v>55</v>
+      </c>
+      <c r="CA59" s="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN60" s="13">
         <v>56</v>
       </c>
@@ -9855,8 +11073,29 @@
       <c r="BC60" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS60" s="13">
+        <v>56</v>
+      </c>
+      <c r="BT60" s="13">
+        <v>10</v>
+      </c>
+      <c r="BU60" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV60" s="13">
+        <v>0.15845454545454549</v>
+      </c>
+      <c r="BW60" s="13">
+        <v>4.4793636363636367</v>
+      </c>
+      <c r="BZ60" s="13">
+        <v>56</v>
+      </c>
+      <c r="CA60" s="13">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN61" s="13">
         <v>57</v>
       </c>
@@ -9905,8 +11144,29 @@
       <c r="BC61" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS61" s="13">
+        <v>57</v>
+      </c>
+      <c r="BT61" s="13">
+        <v>10</v>
+      </c>
+      <c r="BU61" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV61" s="13">
+        <v>0.16600000000000004</v>
+      </c>
+      <c r="BW61" s="13">
+        <v>4.645363636363637</v>
+      </c>
+      <c r="BZ61" s="13">
+        <v>57</v>
+      </c>
+      <c r="CA61" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN62" s="13">
         <v>58</v>
       </c>
@@ -9955,8 +11215,29 @@
       <c r="BC62" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS62" s="13">
+        <v>58</v>
+      </c>
+      <c r="BT62" s="13">
+        <v>10</v>
+      </c>
+      <c r="BU62" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV62" s="13">
+        <v>0.17354545454545456</v>
+      </c>
+      <c r="BW62" s="13">
+        <v>4.8189090909090915</v>
+      </c>
+      <c r="BZ62" s="13">
+        <v>58</v>
+      </c>
+      <c r="CA62" s="13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN63" s="13">
         <v>59</v>
       </c>
@@ -10005,8 +11286,29 @@
       <c r="BC63" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="24:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS63" s="13">
+        <v>59</v>
+      </c>
+      <c r="BT63" s="13">
+        <v>10</v>
+      </c>
+      <c r="BU63" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV63" s="13">
+        <v>0.18109090909090911</v>
+      </c>
+      <c r="BW63" s="13">
+        <v>5.0000000000000009</v>
+      </c>
+      <c r="BZ63" s="13">
+        <v>59</v>
+      </c>
+      <c r="CA63" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="24:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN64" s="13">
         <v>60</v>
       </c>
@@ -10055,8 +11357,29 @@
       <c r="BC64" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS64" s="13">
+        <v>60</v>
+      </c>
+      <c r="BT64" s="13">
+        <v>11</v>
+      </c>
+      <c r="BU64" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV64" s="13">
+        <v>0.17090909090909098</v>
+      </c>
+      <c r="BW64" s="13">
+        <v>5.1709090909090918</v>
+      </c>
+      <c r="BZ64">
+        <v>60</v>
+      </c>
+      <c r="CA64">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN65" s="13">
         <v>61</v>
       </c>
@@ -10095,8 +11418,23 @@
       <c r="BA65" s="13"/>
       <c r="BB65" s="13"/>
       <c r="BC65" s="13"/>
-    </row>
-    <row r="66" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS65" s="13">
+        <v>61</v>
+      </c>
+      <c r="BT65" s="13">
+        <v>11</v>
+      </c>
+      <c r="BU65" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV65" s="13">
+        <v>0.17945454545454553</v>
+      </c>
+      <c r="BW65" s="13">
+        <v>5.3503636363636371</v>
+      </c>
+    </row>
+    <row r="66" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN66" s="13">
         <v>62</v>
       </c>
@@ -10135,8 +11473,23 @@
       <c r="BA66" s="13"/>
       <c r="BB66" s="13"/>
       <c r="BC66" s="13"/>
-    </row>
-    <row r="67" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS66" s="13">
+        <v>62</v>
+      </c>
+      <c r="BT66" s="13">
+        <v>11</v>
+      </c>
+      <c r="BU66" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV66" s="13">
+        <v>0.18800000000000008</v>
+      </c>
+      <c r="BW66" s="13">
+        <v>5.5383636363636368</v>
+      </c>
+    </row>
+    <row r="67" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN67" s="13">
         <v>63</v>
       </c>
@@ -10175,8 +11528,23 @@
       <c r="BA67" s="13"/>
       <c r="BB67" s="13"/>
       <c r="BC67" s="13"/>
-    </row>
-    <row r="68" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS67" s="13">
+        <v>63</v>
+      </c>
+      <c r="BT67" s="13">
+        <v>11</v>
+      </c>
+      <c r="BU67" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV67" s="13">
+        <v>0.19654545454545461</v>
+      </c>
+      <c r="BW67" s="13">
+        <v>5.7349090909090918</v>
+      </c>
+    </row>
+    <row r="68" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN68" s="13">
         <v>64</v>
       </c>
@@ -10215,8 +11583,23 @@
       <c r="BA68" s="13"/>
       <c r="BB68" s="13"/>
       <c r="BC68" s="13"/>
-    </row>
-    <row r="69" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS68" s="13">
+        <v>64</v>
+      </c>
+      <c r="BT68" s="13">
+        <v>11</v>
+      </c>
+      <c r="BU68" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV68" s="13">
+        <v>0.20509090909090916</v>
+      </c>
+      <c r="BW68" s="13">
+        <v>5.9400000000000013</v>
+      </c>
+    </row>
+    <row r="69" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN69" s="13">
         <v>65</v>
       </c>
@@ -10255,8 +11638,23 @@
       <c r="BA69" s="13"/>
       <c r="BB69" s="13"/>
       <c r="BC69" s="13"/>
-    </row>
-    <row r="70" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS69" s="13">
+        <v>65</v>
+      </c>
+      <c r="BT69" s="13">
+        <v>12</v>
+      </c>
+      <c r="BU69" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV69" s="13">
+        <v>0.19272727272727266</v>
+      </c>
+      <c r="BW69" s="13">
+        <v>6.1327272727272737</v>
+      </c>
+    </row>
+    <row r="70" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN70" s="13">
         <v>66</v>
       </c>
@@ -10295,8 +11693,23 @@
       <c r="BA70" s="13"/>
       <c r="BB70" s="13"/>
       <c r="BC70" s="13"/>
-    </row>
-    <row r="71" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS70" s="13">
+        <v>66</v>
+      </c>
+      <c r="BT70" s="13">
+        <v>12</v>
+      </c>
+      <c r="BU70" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV70" s="13">
+        <v>0.2023636363636363</v>
+      </c>
+      <c r="BW70" s="13">
+        <v>6.3350909090909102</v>
+      </c>
+    </row>
+    <row r="71" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN71" s="13">
         <v>67</v>
       </c>
@@ -10335,8 +11748,23 @@
       <c r="BA71" s="13"/>
       <c r="BB71" s="13"/>
       <c r="BC71" s="13"/>
-    </row>
-    <row r="72" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS71" s="13">
+        <v>67</v>
+      </c>
+      <c r="BT71" s="13">
+        <v>12</v>
+      </c>
+      <c r="BU71" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV71" s="13">
+        <v>0.21199999999999994</v>
+      </c>
+      <c r="BW71" s="13">
+        <v>6.54709090909091</v>
+      </c>
+    </row>
+    <row r="72" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN72" s="13">
         <v>68</v>
       </c>
@@ -10375,8 +11803,23 @@
       <c r="BA72" s="13"/>
       <c r="BB72" s="13"/>
       <c r="BC72" s="13"/>
-    </row>
-    <row r="73" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS72" s="13">
+        <v>68</v>
+      </c>
+      <c r="BT72" s="13">
+        <v>12</v>
+      </c>
+      <c r="BU72" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV72" s="13">
+        <v>0.22163636363636355</v>
+      </c>
+      <c r="BW72" s="13">
+        <v>6.7687272727272738</v>
+      </c>
+    </row>
+    <row r="73" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN73" s="13">
         <v>69</v>
       </c>
@@ -10415,8 +11858,23 @@
       <c r="BA73" s="13"/>
       <c r="BB73" s="13"/>
       <c r="BC73" s="13"/>
-    </row>
-    <row r="74" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS73" s="13">
+        <v>69</v>
+      </c>
+      <c r="BT73" s="13">
+        <v>12</v>
+      </c>
+      <c r="BU73" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV73" s="13">
+        <v>0.23127272727272719</v>
+      </c>
+      <c r="BW73" s="13">
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="74" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN74" s="13">
         <v>70</v>
       </c>
@@ -10455,8 +11913,23 @@
       <c r="BA74" s="13"/>
       <c r="BB74" s="13"/>
       <c r="BC74" s="13"/>
-    </row>
-    <row r="75" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS74" s="13">
+        <v>70</v>
+      </c>
+      <c r="BT74" s="13">
+        <v>13</v>
+      </c>
+      <c r="BU74" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV74" s="13">
+        <v>0.2454545454545454</v>
+      </c>
+      <c r="BW74" s="13">
+        <v>7.245454545454546</v>
+      </c>
+    </row>
+    <row r="75" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN75" s="13">
         <v>71</v>
       </c>
@@ -10495,8 +11968,23 @@
       <c r="BA75" s="13"/>
       <c r="BB75" s="13"/>
       <c r="BC75" s="13"/>
-    </row>
-    <row r="76" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS75" s="13">
+        <v>71</v>
+      </c>
+      <c r="BT75" s="13">
+        <v>13</v>
+      </c>
+      <c r="BU75" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV75" s="13">
+        <v>0.25772727272727269</v>
+      </c>
+      <c r="BW75" s="13">
+        <v>7.5031818181818188</v>
+      </c>
+    </row>
+    <row r="76" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN76" s="13">
         <v>72</v>
       </c>
@@ -10535,8 +12023,23 @@
       <c r="BA76" s="13"/>
       <c r="BB76" s="13"/>
       <c r="BC76" s="13"/>
-    </row>
-    <row r="77" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS76" s="13">
+        <v>72</v>
+      </c>
+      <c r="BT76" s="13">
+        <v>13</v>
+      </c>
+      <c r="BU76" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV76" s="13">
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="BW76" s="13">
+        <v>7.7731818181818184</v>
+      </c>
+    </row>
+    <row r="77" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN77" s="13">
         <v>73</v>
       </c>
@@ -10575,8 +12078,23 @@
       <c r="BA77" s="13"/>
       <c r="BB77" s="13"/>
       <c r="BC77" s="13"/>
-    </row>
-    <row r="78" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS77" s="13">
+        <v>73</v>
+      </c>
+      <c r="BT77" s="13">
+        <v>13</v>
+      </c>
+      <c r="BU77" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV77" s="13">
+        <v>0.28227272727272718</v>
+      </c>
+      <c r="BW77" s="13">
+        <v>8.0554545454545448</v>
+      </c>
+    </row>
+    <row r="78" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN78" s="13">
         <v>74</v>
       </c>
@@ -10615,8 +12133,23 @@
       <c r="BA78" s="13"/>
       <c r="BB78" s="13"/>
       <c r="BC78" s="13"/>
-    </row>
-    <row r="79" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS78" s="13">
+        <v>74</v>
+      </c>
+      <c r="BT78" s="13">
+        <v>13</v>
+      </c>
+      <c r="BU78" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV78" s="13">
+        <v>0.29454545454545444</v>
+      </c>
+      <c r="BW78" s="13">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="79" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN79" s="13">
         <v>75</v>
       </c>
@@ -10655,8 +12188,23 @@
       <c r="BA79" s="13"/>
       <c r="BB79" s="13"/>
       <c r="BC79" s="13"/>
-    </row>
-    <row r="80" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS79" s="13">
+        <v>75</v>
+      </c>
+      <c r="BT79" s="13">
+        <v>14</v>
+      </c>
+      <c r="BU79" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV79" s="13">
+        <v>0.28909090909090907</v>
+      </c>
+      <c r="BW79" s="13">
+        <v>8.6390909090909087</v>
+      </c>
+    </row>
+    <row r="80" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN80" s="13">
         <v>76</v>
       </c>
@@ -10695,8 +12243,23 @@
       <c r="BA80" s="13"/>
       <c r="BB80" s="13"/>
       <c r="BC80" s="13"/>
-    </row>
-    <row r="81" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS80" s="13">
+        <v>76</v>
+      </c>
+      <c r="BT80" s="13">
+        <v>14</v>
+      </c>
+      <c r="BU80" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV80" s="13">
+        <v>0.30354545454545451</v>
+      </c>
+      <c r="BW80" s="13">
+        <v>8.9426363636363639</v>
+      </c>
+    </row>
+    <row r="81" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN81" s="13">
         <v>77</v>
       </c>
@@ -10735,8 +12298,23 @@
       <c r="BA81" s="13"/>
       <c r="BB81" s="13"/>
       <c r="BC81" s="13"/>
-    </row>
-    <row r="82" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS81" s="13">
+        <v>77</v>
+      </c>
+      <c r="BT81" s="13">
+        <v>14</v>
+      </c>
+      <c r="BU81" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV81" s="13">
+        <v>0.318</v>
+      </c>
+      <c r="BW81" s="13">
+        <v>9.2606363636363636</v>
+      </c>
+    </row>
+    <row r="82" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN82" s="13">
         <v>78</v>
       </c>
@@ -10775,8 +12353,23 @@
       <c r="BA82" s="13"/>
       <c r="BB82" s="13"/>
       <c r="BC82" s="13"/>
-    </row>
-    <row r="83" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS82" s="13">
+        <v>78</v>
+      </c>
+      <c r="BT82" s="13">
+        <v>14</v>
+      </c>
+      <c r="BU82" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV82" s="13">
+        <v>0.33245454545454539</v>
+      </c>
+      <c r="BW82" s="13">
+        <v>9.5930909090909093</v>
+      </c>
+    </row>
+    <row r="83" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN83" s="13">
         <v>79</v>
       </c>
@@ -10815,8 +12408,23 @@
       <c r="BA83" s="13"/>
       <c r="BB83" s="13"/>
       <c r="BC83" s="13"/>
-    </row>
-    <row r="84" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS83" s="13">
+        <v>79</v>
+      </c>
+      <c r="BT83" s="13">
+        <v>14</v>
+      </c>
+      <c r="BU83" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV83" s="13">
+        <v>0.34690909090909083</v>
+      </c>
+      <c r="BW83" s="13">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="84" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN84" s="13">
         <v>80</v>
       </c>
@@ -10855,8 +12463,23 @@
       <c r="BA84" s="13"/>
       <c r="BB84" s="13"/>
       <c r="BC84" s="13"/>
-    </row>
-    <row r="85" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS84" s="13">
+        <v>80</v>
+      </c>
+      <c r="BT84" s="13">
+        <v>15</v>
+      </c>
+      <c r="BU84" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV84" s="13">
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="BW84" s="13">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="85" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN85" s="13">
         <v>81</v>
       </c>
@@ -10895,8 +12518,23 @@
       <c r="BA85" s="13"/>
       <c r="BB85" s="13"/>
       <c r="BC85" s="13"/>
-    </row>
-    <row r="86" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS85" s="13">
+        <v>81</v>
+      </c>
+      <c r="BT85" s="13">
+        <v>15</v>
+      </c>
+      <c r="BU85" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV85" s="13">
+        <v>0.35700000000000021</v>
+      </c>
+      <c r="BW85" s="13">
+        <v>10.637</v>
+      </c>
+    </row>
+    <row r="86" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN86" s="13">
         <v>82</v>
       </c>
@@ -10925,8 +12563,23 @@
       <c r="BA86" s="13"/>
       <c r="BB86" s="13"/>
       <c r="BC86" s="13"/>
-    </row>
-    <row r="87" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS86" s="13">
+        <v>82</v>
+      </c>
+      <c r="BT86" s="13">
+        <v>15</v>
+      </c>
+      <c r="BU86" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV86" s="13">
+        <v>0.37400000000000022</v>
+      </c>
+      <c r="BW86" s="13">
+        <v>11.011000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN87" s="13">
         <v>83</v>
       </c>
@@ -10955,8 +12608,23 @@
       <c r="BA87" s="13"/>
       <c r="BB87" s="13"/>
       <c r="BC87" s="13"/>
-    </row>
-    <row r="88" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS87" s="13">
+        <v>83</v>
+      </c>
+      <c r="BT87" s="13">
+        <v>15</v>
+      </c>
+      <c r="BU87" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV87" s="13">
+        <v>0.39100000000000018</v>
+      </c>
+      <c r="BW87" s="13">
+        <v>11.402000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN88" s="13">
         <v>84</v>
       </c>
@@ -10985,8 +12653,23 @@
       <c r="BA88" s="13"/>
       <c r="BB88" s="13"/>
       <c r="BC88" s="13"/>
-    </row>
-    <row r="89" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS88" s="13">
+        <v>84</v>
+      </c>
+      <c r="BT88" s="13">
+        <v>15</v>
+      </c>
+      <c r="BU88" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV88" s="13">
+        <v>0.4080000000000002</v>
+      </c>
+      <c r="BW88" s="13">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="89" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN89" s="13">
         <v>85</v>
       </c>
@@ -11015,8 +12698,23 @@
       <c r="BA89" s="13"/>
       <c r="BB89" s="13"/>
       <c r="BC89" s="13"/>
-    </row>
-    <row r="90" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS89" s="13">
+        <v>85</v>
+      </c>
+      <c r="BT89" s="13">
+        <v>16</v>
+      </c>
+      <c r="BU89" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV89" s="13">
+        <v>0.39818181818181808</v>
+      </c>
+      <c r="BW89" s="13">
+        <v>12.208181818181819</v>
+      </c>
+    </row>
+    <row r="90" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN90" s="13">
         <v>86</v>
       </c>
@@ -11045,8 +12743,23 @@
       <c r="BA90" s="13"/>
       <c r="BB90" s="13"/>
       <c r="BC90" s="13"/>
-    </row>
-    <row r="91" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS90" s="13">
+        <v>86</v>
+      </c>
+      <c r="BT90" s="13">
+        <v>16</v>
+      </c>
+      <c r="BU90" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV90" s="13">
+        <v>0.41809090909090901</v>
+      </c>
+      <c r="BW90" s="13">
+        <v>12.626272727272728</v>
+      </c>
+    </row>
+    <row r="91" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN91" s="13">
         <v>87</v>
       </c>
@@ -11075,8 +12788,23 @@
       <c r="BA91" s="13"/>
       <c r="BB91" s="13"/>
       <c r="BC91" s="13"/>
-    </row>
-    <row r="92" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS91" s="13">
+        <v>87</v>
+      </c>
+      <c r="BT91" s="13">
+        <v>16</v>
+      </c>
+      <c r="BU91" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV91" s="13">
+        <v>0.43799999999999994</v>
+      </c>
+      <c r="BW91" s="13">
+        <v>13.064272727272728</v>
+      </c>
+    </row>
+    <row r="92" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN92" s="13">
         <v>88</v>
       </c>
@@ -11105,8 +12833,23 @@
       <c r="BA92" s="13"/>
       <c r="BB92" s="13"/>
       <c r="BC92" s="13"/>
-    </row>
-    <row r="93" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS92" s="13">
+        <v>88</v>
+      </c>
+      <c r="BT92" s="13">
+        <v>16</v>
+      </c>
+      <c r="BU92" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV92" s="13">
+        <v>0.45790909090909077</v>
+      </c>
+      <c r="BW92" s="13">
+        <v>13.522181818181819</v>
+      </c>
+    </row>
+    <row r="93" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN93" s="13">
         <v>89</v>
       </c>
@@ -11135,8 +12878,23 @@
       <c r="BA93" s="13"/>
       <c r="BB93" s="13"/>
       <c r="BC93" s="13"/>
-    </row>
-    <row r="94" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS93" s="13">
+        <v>89</v>
+      </c>
+      <c r="BT93" s="13">
+        <v>16</v>
+      </c>
+      <c r="BU93" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV93" s="13">
+        <v>0.4778181818181817</v>
+      </c>
+      <c r="BW93" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN94" s="13">
         <v>90</v>
       </c>
@@ -11165,8 +12923,23 @@
       <c r="BA94" s="13"/>
       <c r="BB94" s="13"/>
       <c r="BC94" s="13"/>
-    </row>
-    <row r="95" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS94" s="13">
+        <v>90</v>
+      </c>
+      <c r="BT94" s="13">
+        <v>17</v>
+      </c>
+      <c r="BU94" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV94" s="13">
+        <v>0.42363636363636331</v>
+      </c>
+      <c r="BW94" s="13">
+        <v>14.423636363636364</v>
+      </c>
+    </row>
+    <row r="95" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN95" s="13">
         <v>91</v>
       </c>
@@ -11195,8 +12968,23 @@
       <c r="BA95" s="13"/>
       <c r="BB95" s="13"/>
       <c r="BC95" s="13"/>
-    </row>
-    <row r="96" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS95" s="13">
+        <v>91</v>
+      </c>
+      <c r="BT95" s="13">
+        <v>17</v>
+      </c>
+      <c r="BU95" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV95" s="13">
+        <v>0.4448181818181815</v>
+      </c>
+      <c r="BW95" s="13">
+        <v>14.868454545454545</v>
+      </c>
+    </row>
+    <row r="96" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN96" s="13">
         <v>92</v>
       </c>
@@ -11225,8 +13013,23 @@
       <c r="BA96" s="13"/>
       <c r="BB96" s="13"/>
       <c r="BC96" s="13"/>
-    </row>
-    <row r="97" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS96" s="13">
+        <v>92</v>
+      </c>
+      <c r="BT96" s="13">
+        <v>17</v>
+      </c>
+      <c r="BU96" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV96" s="13">
+        <v>0.46599999999999969</v>
+      </c>
+      <c r="BW96" s="13">
+        <v>15.334454545454545</v>
+      </c>
+    </row>
+    <row r="97" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN97" s="13">
         <v>93</v>
       </c>
@@ -11255,8 +13058,23 @@
       <c r="BA97" s="13"/>
       <c r="BB97" s="13"/>
       <c r="BC97" s="13"/>
-    </row>
-    <row r="98" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS97" s="13">
+        <v>93</v>
+      </c>
+      <c r="BT97" s="13">
+        <v>17</v>
+      </c>
+      <c r="BU97" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV97" s="13">
+        <v>0.48718181818181777</v>
+      </c>
+      <c r="BW97" s="13">
+        <v>15.821636363636362</v>
+      </c>
+    </row>
+    <row r="98" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN98" s="13">
         <v>94</v>
       </c>
@@ -11285,8 +13103,23 @@
       <c r="BA98" s="13"/>
       <c r="BB98" s="13"/>
       <c r="BC98" s="13"/>
-    </row>
-    <row r="99" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS98" s="13">
+        <v>94</v>
+      </c>
+      <c r="BT98" s="13">
+        <v>17</v>
+      </c>
+      <c r="BU98" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV98" s="13">
+        <v>0.50836363636363602</v>
+      </c>
+      <c r="BW98" s="13">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN99" s="13">
         <v>95</v>
       </c>
@@ -11315,8 +13148,23 @@
       <c r="BA99" s="13"/>
       <c r="BB99" s="13"/>
       <c r="BC99" s="13"/>
-    </row>
-    <row r="100" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS99" s="13">
+        <v>95</v>
+      </c>
+      <c r="BT99" s="13">
+        <v>18</v>
+      </c>
+      <c r="BU99" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV99" s="13">
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="BW99" s="13">
+        <v>16.784545454545452</v>
+      </c>
+    </row>
+    <row r="100" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN100" s="13">
         <v>96</v>
       </c>
@@ -11345,8 +13193,23 @@
       <c r="BA100" s="13"/>
       <c r="BB100" s="13"/>
       <c r="BC100" s="13"/>
-    </row>
-    <row r="101" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS100" s="13">
+        <v>96</v>
+      </c>
+      <c r="BT100" s="13">
+        <v>18</v>
+      </c>
+      <c r="BU100" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV100" s="13">
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="BW100" s="13">
+        <v>17.261818181818178</v>
+      </c>
+    </row>
+    <row r="101" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN101" s="13">
         <v>97</v>
       </c>
@@ -11375,8 +13238,23 @@
       <c r="BA101" s="13"/>
       <c r="BB101" s="13"/>
       <c r="BC101" s="13"/>
-    </row>
-    <row r="102" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS101" s="13">
+        <v>97</v>
+      </c>
+      <c r="BT101" s="13">
+        <v>18</v>
+      </c>
+      <c r="BU101" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV101" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BW101" s="13">
+        <v>17.761818181818178</v>
+      </c>
+    </row>
+    <row r="102" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN102" s="13">
         <v>98</v>
       </c>
@@ -11405,8 +13283,23 @@
       <c r="BA102" s="13"/>
       <c r="BB102" s="13"/>
       <c r="BC102" s="13"/>
-    </row>
-    <row r="103" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS102" s="13">
+        <v>98</v>
+      </c>
+      <c r="BT102" s="13">
+        <v>18</v>
+      </c>
+      <c r="BU102" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV102" s="13">
+        <v>0.52272727272727271</v>
+      </c>
+      <c r="BW102" s="13">
+        <v>18.284545454545452</v>
+      </c>
+    </row>
+    <row r="103" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN103" s="13">
         <v>99</v>
       </c>
@@ -11435,8 +13328,23 @@
       <c r="BA103" s="13"/>
       <c r="BB103" s="13"/>
       <c r="BC103" s="13"/>
-    </row>
-    <row r="104" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS103" s="13">
+        <v>99</v>
+      </c>
+      <c r="BT103" s="13">
+        <v>18</v>
+      </c>
+      <c r="BU103" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV103" s="13">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="BW103" s="13">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN104" s="13">
         <v>100</v>
       </c>
@@ -11465,8 +13373,23 @@
       <c r="BA104" s="13"/>
       <c r="BB104" s="13"/>
       <c r="BC104" s="13"/>
-    </row>
-    <row r="105" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS104" s="13">
+        <v>100</v>
+      </c>
+      <c r="BT104" s="13">
+        <v>19</v>
+      </c>
+      <c r="BU104" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV104" s="13">
+        <v>0.4745454545454551</v>
+      </c>
+      <c r="BW104" s="13">
+        <v>19.304545454545455</v>
+      </c>
+    </row>
+    <row r="105" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN105" s="13">
         <v>101</v>
       </c>
@@ -11495,8 +13418,23 @@
       <c r="BA105" s="13"/>
       <c r="BB105" s="13"/>
       <c r="BC105" s="13"/>
-    </row>
-    <row r="106" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS105" s="13">
+        <v>101</v>
+      </c>
+      <c r="BT105" s="13">
+        <v>19</v>
+      </c>
+      <c r="BU105" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV105" s="13">
+        <v>0.49827272727272787</v>
+      </c>
+      <c r="BW105" s="13">
+        <v>19.802818181818182</v>
+      </c>
+    </row>
+    <row r="106" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN106" s="13">
         <v>102</v>
       </c>
@@ -11525,8 +13463,23 @@
       <c r="BA106" s="13"/>
       <c r="BB106" s="13"/>
       <c r="BC106" s="13"/>
-    </row>
-    <row r="107" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS106" s="13">
+        <v>102</v>
+      </c>
+      <c r="BT106" s="13">
+        <v>19</v>
+      </c>
+      <c r="BU106" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV106" s="13">
+        <v>0.52200000000000057</v>
+      </c>
+      <c r="BW106" s="13">
+        <v>20.324818181818184</v>
+      </c>
+    </row>
+    <row r="107" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN107" s="13">
         <v>103</v>
       </c>
@@ -11555,8 +13508,23 @@
       <c r="BA107" s="13"/>
       <c r="BB107" s="13"/>
       <c r="BC107" s="13"/>
-    </row>
-    <row r="108" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS107" s="13">
+        <v>103</v>
+      </c>
+      <c r="BT107" s="13">
+        <v>19</v>
+      </c>
+      <c r="BU107" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV107" s="13">
+        <v>0.54572727272727328</v>
+      </c>
+      <c r="BW107" s="13">
+        <v>20.870545454545457</v>
+      </c>
+    </row>
+    <row r="108" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN108" s="13">
         <v>104</v>
       </c>
@@ -11585,8 +13553,23 @@
       <c r="BA108" s="13"/>
       <c r="BB108" s="13"/>
       <c r="BC108" s="13"/>
-    </row>
-    <row r="109" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS108" s="13">
+        <v>104</v>
+      </c>
+      <c r="BT108" s="13">
+        <v>19</v>
+      </c>
+      <c r="BU108" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV108" s="13">
+        <v>0.5694545454545461</v>
+      </c>
+      <c r="BW108" s="13">
+        <v>21.440000000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN109" s="13">
         <v>105</v>
       </c>
@@ -11615,8 +13598,23 @@
       <c r="BA109" s="13"/>
       <c r="BB109" s="13"/>
       <c r="BC109" s="13"/>
-    </row>
-    <row r="110" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS109" s="13">
+        <v>105</v>
+      </c>
+      <c r="BT109" s="13">
+        <v>20</v>
+      </c>
+      <c r="BU109" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV109" s="13">
+        <v>0.49272727272727224</v>
+      </c>
+      <c r="BW109" s="13">
+        <v>21.932727272727277</v>
+      </c>
+    </row>
+    <row r="110" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN110" s="13">
         <v>106</v>
       </c>
@@ -11645,8 +13643,23 @@
       <c r="BA110" s="13"/>
       <c r="BB110" s="13"/>
       <c r="BC110" s="13"/>
-    </row>
-    <row r="111" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS110" s="13">
+        <v>106</v>
+      </c>
+      <c r="BT110" s="13">
+        <v>20</v>
+      </c>
+      <c r="BU110" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV110" s="13">
+        <v>0.51736363636363591</v>
+      </c>
+      <c r="BW110" s="13">
+        <v>22.450090909090914</v>
+      </c>
+    </row>
+    <row r="111" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN111" s="13">
         <v>107</v>
       </c>
@@ -11675,8 +13688,23 @@
       <c r="BA111" s="13"/>
       <c r="BB111" s="13"/>
       <c r="BC111" s="13"/>
-    </row>
-    <row r="112" spans="40:55" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS111" s="13">
+        <v>107</v>
+      </c>
+      <c r="BT111" s="13">
+        <v>20</v>
+      </c>
+      <c r="BU111" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV111" s="13">
+        <v>0.54199999999999948</v>
+      </c>
+      <c r="BW111" s="13">
+        <v>22.992090909090912</v>
+      </c>
+    </row>
+    <row r="112" spans="40:75" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AN112" s="13">
         <v>108</v>
       </c>
@@ -11705,6 +13733,735 @@
       <c r="BA112" s="13"/>
       <c r="BB112" s="13"/>
       <c r="BC112" s="13"/>
+      <c r="BS112" s="13">
+        <v>108</v>
+      </c>
+      <c r="BT112" s="13">
+        <v>20</v>
+      </c>
+      <c r="BU112" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV112" s="13">
+        <v>0.56663636363636305</v>
+      </c>
+      <c r="BW112" s="13">
+        <v>23.558727272727275</v>
+      </c>
+    </row>
+    <row r="113" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS113" s="13">
+        <v>109</v>
+      </c>
+      <c r="BT113" s="13">
+        <v>20</v>
+      </c>
+      <c r="BU113" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV113" s="13">
+        <v>0.59127272727272662</v>
+      </c>
+      <c r="BW113" s="13">
+        <v>24.150000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS114" s="13">
+        <v>110</v>
+      </c>
+      <c r="BT114" s="13">
+        <v>21</v>
+      </c>
+      <c r="BU114" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV114" s="13">
+        <v>0.51818181818181841</v>
+      </c>
+      <c r="BW114" s="13">
+        <v>24.668181818181822</v>
+      </c>
+    </row>
+    <row r="115" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS115" s="13">
+        <v>111</v>
+      </c>
+      <c r="BT115" s="13">
+        <v>21</v>
+      </c>
+      <c r="BU115" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV115" s="13">
+        <v>0.5440909090909094</v>
+      </c>
+      <c r="BW115" s="13">
+        <v>25.21227272727273</v>
+      </c>
+    </row>
+    <row r="116" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS116" s="13">
+        <v>112</v>
+      </c>
+      <c r="BT116" s="13">
+        <v>21</v>
+      </c>
+      <c r="BU116" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV116" s="13">
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="BW116" s="13">
+        <v>25.78227272727273</v>
+      </c>
+    </row>
+    <row r="117" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS117" s="13">
+        <v>113</v>
+      </c>
+      <c r="BT117" s="13">
+        <v>21</v>
+      </c>
+      <c r="BU117" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV117" s="13">
+        <v>0.59590909090909117</v>
+      </c>
+      <c r="BW117" s="13">
+        <v>26.378181818181822</v>
+      </c>
+    </row>
+    <row r="118" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS118" s="13">
+        <v>114</v>
+      </c>
+      <c r="BT118" s="13">
+        <v>21</v>
+      </c>
+      <c r="BU118" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV118" s="13">
+        <v>0.62181818181818205</v>
+      </c>
+      <c r="BW118" s="13">
+        <v>27.000000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS119" s="13">
+        <v>115</v>
+      </c>
+      <c r="BT119" s="13">
+        <v>22</v>
+      </c>
+      <c r="BU119" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV119" s="13">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="BW119" s="13">
+        <v>27.54545454545455</v>
+      </c>
+    </row>
+    <row r="120" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS120" s="13">
+        <v>116</v>
+      </c>
+      <c r="BT120" s="13">
+        <v>22</v>
+      </c>
+      <c r="BU120" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV120" s="13">
+        <v>0.57272727272727275</v>
+      </c>
+      <c r="BW120" s="13">
+        <v>28.118181818181824</v>
+      </c>
+    </row>
+    <row r="121" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS121" s="13">
+        <v>117</v>
+      </c>
+      <c r="BT121" s="13">
+        <v>22</v>
+      </c>
+      <c r="BU121" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV121" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="BW121" s="13">
+        <v>28.718181818181826</v>
+      </c>
+    </row>
+    <row r="122" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS122" s="13">
+        <v>118</v>
+      </c>
+      <c r="BT122" s="13">
+        <v>22</v>
+      </c>
+      <c r="BU122" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV122" s="13">
+        <v>0.6272727272727272</v>
+      </c>
+      <c r="BW122" s="13">
+        <v>29.345454545454555</v>
+      </c>
+    </row>
+    <row r="123" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS123" s="13">
+        <v>119</v>
+      </c>
+      <c r="BT123" s="13">
+        <v>22</v>
+      </c>
+      <c r="BU123" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV123" s="13">
+        <v>0.65454545454545454</v>
+      </c>
+      <c r="BW123" s="13">
+        <v>30.000000000000011</v>
+      </c>
+    </row>
+    <row r="124" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS124" s="13">
+        <v>120</v>
+      </c>
+      <c r="BT124" s="13">
+        <v>23</v>
+      </c>
+      <c r="BU124" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV124" s="13">
+        <v>0.60545454545454513</v>
+      </c>
+      <c r="BW124" s="13">
+        <v>30.605454545454556</v>
+      </c>
+    </row>
+    <row r="125" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS125" s="13">
+        <v>121</v>
+      </c>
+      <c r="BT125" s="13">
+        <v>23</v>
+      </c>
+      <c r="BU125" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV125" s="13">
+        <v>0.63572727272727247</v>
+      </c>
+      <c r="BW125" s="13">
+        <v>31.241181818181829</v>
+      </c>
+    </row>
+    <row r="126" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS126" s="13">
+        <v>122</v>
+      </c>
+      <c r="BT126" s="13">
+        <v>23</v>
+      </c>
+      <c r="BU126" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV126" s="13">
+        <v>0.6659999999999997</v>
+      </c>
+      <c r="BW126" s="13">
+        <v>31.907181818181829</v>
+      </c>
+    </row>
+    <row r="127" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS127" s="13">
+        <v>123</v>
+      </c>
+      <c r="BT127" s="13">
+        <v>23</v>
+      </c>
+      <c r="BU127" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV127" s="13">
+        <v>0.69627272727272682</v>
+      </c>
+      <c r="BW127" s="13">
+        <v>32.603454545454554</v>
+      </c>
+    </row>
+    <row r="128" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS128" s="13">
+        <v>124</v>
+      </c>
+      <c r="BT128" s="13">
+        <v>23</v>
+      </c>
+      <c r="BU128" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV128" s="13">
+        <v>0.72654545454545416</v>
+      </c>
+      <c r="BW128" s="13">
+        <v>33.330000000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS129" s="13">
+        <v>125</v>
+      </c>
+      <c r="BT129" s="13">
+        <v>24</v>
+      </c>
+      <c r="BU129" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV129" s="13">
+        <v>0.68181818181818188</v>
+      </c>
+      <c r="BW129" s="13">
+        <v>34.011818181818185</v>
+      </c>
+    </row>
+    <row r="130" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS130" s="13">
+        <v>126</v>
+      </c>
+      <c r="BT130" s="13">
+        <v>24</v>
+      </c>
+      <c r="BU130" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV130" s="13">
+        <v>0.71590909090909094</v>
+      </c>
+      <c r="BW130" s="13">
+        <v>34.727727272727279</v>
+      </c>
+    </row>
+    <row r="131" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS131" s="13">
+        <v>127</v>
+      </c>
+      <c r="BT131" s="13">
+        <v>24</v>
+      </c>
+      <c r="BU131" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV131" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="BW131" s="13">
+        <v>35.477727272727279</v>
+      </c>
+    </row>
+    <row r="132" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS132" s="13">
+        <v>128</v>
+      </c>
+      <c r="BT132" s="13">
+        <v>24</v>
+      </c>
+      <c r="BU132" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV132" s="13">
+        <v>0.78409090909090906</v>
+      </c>
+      <c r="BW132" s="13">
+        <v>36.261818181818185</v>
+      </c>
+    </row>
+    <row r="133" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS133" s="13">
+        <v>129</v>
+      </c>
+      <c r="BT133" s="13">
+        <v>24</v>
+      </c>
+      <c r="BU133" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV133" s="13">
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="BW133" s="13">
+        <v>37.080000000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS134" s="13">
+        <v>130</v>
+      </c>
+      <c r="BT134" s="13">
+        <v>25</v>
+      </c>
+      <c r="BU134" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV134" s="13">
+        <v>0.79636363636363683</v>
+      </c>
+      <c r="BW134" s="13">
+        <v>37.876363636363642</v>
+      </c>
+    </row>
+    <row r="135" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS135" s="13">
+        <v>131</v>
+      </c>
+      <c r="BT135" s="13">
+        <v>25</v>
+      </c>
+      <c r="BU135" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV135" s="13">
+        <v>0.83618181818181869</v>
+      </c>
+      <c r="BW135" s="13">
+        <v>38.712545454545463</v>
+      </c>
+    </row>
+    <row r="136" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS136" s="13">
+        <v>132</v>
+      </c>
+      <c r="BT136" s="13">
+        <v>25</v>
+      </c>
+      <c r="BU136" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV136" s="13">
+        <v>0.87600000000000056</v>
+      </c>
+      <c r="BW136" s="13">
+        <v>39.588545454545461</v>
+      </c>
+    </row>
+    <row r="137" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS137" s="13">
+        <v>133</v>
+      </c>
+      <c r="BT137" s="13">
+        <v>25</v>
+      </c>
+      <c r="BU137" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV137" s="13">
+        <v>0.91581818181818231</v>
+      </c>
+      <c r="BW137" s="13">
+        <v>40.504363636363642</v>
+      </c>
+    </row>
+    <row r="138" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS138" s="13">
+        <v>134</v>
+      </c>
+      <c r="BT138" s="13">
+        <v>25</v>
+      </c>
+      <c r="BU138" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV138" s="13">
+        <v>0.95563636363636417</v>
+      </c>
+      <c r="BW138" s="13">
+        <v>41.460000000000008</v>
+      </c>
+    </row>
+    <row r="139" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS139" s="13">
+        <v>135</v>
+      </c>
+      <c r="BT139" s="13">
+        <v>26</v>
+      </c>
+      <c r="BU139" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV139" s="13">
+        <v>0.94727272727272749</v>
+      </c>
+      <c r="BW139" s="13">
+        <v>42.407272727272733</v>
+      </c>
+    </row>
+    <row r="140" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS140" s="13">
+        <v>136</v>
+      </c>
+      <c r="BT140" s="13">
+        <v>26</v>
+      </c>
+      <c r="BU140" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV140" s="13">
+        <v>0.99463636363636387</v>
+      </c>
+      <c r="BW140" s="13">
+        <v>43.401909090909101</v>
+      </c>
+    </row>
+    <row r="141" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS141" s="13">
+        <v>137</v>
+      </c>
+      <c r="BT141" s="13">
+        <v>26</v>
+      </c>
+      <c r="BU141" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV141" s="13">
+        <v>1.0420000000000003</v>
+      </c>
+      <c r="BW141" s="13">
+        <v>44.443909090909102</v>
+      </c>
+    </row>
+    <row r="142" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS142" s="13">
+        <v>138</v>
+      </c>
+      <c r="BT142" s="13">
+        <v>26</v>
+      </c>
+      <c r="BU142" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV142" s="13">
+        <v>1.0893636363636365</v>
+      </c>
+      <c r="BW142" s="13">
+        <v>45.533272727272738</v>
+      </c>
+    </row>
+    <row r="143" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS143" s="13">
+        <v>139</v>
+      </c>
+      <c r="BT143" s="13">
+        <v>26</v>
+      </c>
+      <c r="BU143" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV143" s="13">
+        <v>1.1367272727272728</v>
+      </c>
+      <c r="BW143" s="13">
+        <v>46.670000000000009</v>
+      </c>
+    </row>
+    <row r="144" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS144" s="13">
+        <v>140</v>
+      </c>
+      <c r="BT144" s="13">
+        <v>27</v>
+      </c>
+      <c r="BU144" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV144" s="13">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="BW144" s="13">
+        <v>47.806363636363642</v>
+      </c>
+    </row>
+    <row r="145" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS145" s="13">
+        <v>141</v>
+      </c>
+      <c r="BT145" s="13">
+        <v>27</v>
+      </c>
+      <c r="BU145" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV145" s="13">
+        <v>1.1931818181818183</v>
+      </c>
+      <c r="BW145" s="13">
+        <v>48.999545454545462</v>
+      </c>
+    </row>
+    <row r="146" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS146" s="13">
+        <v>142</v>
+      </c>
+      <c r="BT146" s="13">
+        <v>27</v>
+      </c>
+      <c r="BU146" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV146" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="BW146" s="13">
+        <v>50.249545454545462</v>
+      </c>
+    </row>
+    <row r="147" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS147" s="13">
+        <v>143</v>
+      </c>
+      <c r="BT147" s="13">
+        <v>27</v>
+      </c>
+      <c r="BU147" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV147" s="13">
+        <v>1.3068181818181817</v>
+      </c>
+      <c r="BW147" s="13">
+        <v>51.556363636363642</v>
+      </c>
+    </row>
+    <row r="148" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS148" s="13">
+        <v>144</v>
+      </c>
+      <c r="BT148" s="13">
+        <v>27</v>
+      </c>
+      <c r="BU148" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV148" s="13">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="BW148" s="13">
+        <v>52.920000000000009</v>
+      </c>
+    </row>
+    <row r="149" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS149" s="13">
+        <v>145</v>
+      </c>
+      <c r="BT149" s="13">
+        <v>28</v>
+      </c>
+      <c r="BU149" s="13">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="BV149" s="13">
+        <v>1.2872727272727269</v>
+      </c>
+      <c r="BW149" s="13">
+        <v>54.207272727272738</v>
+      </c>
+    </row>
+    <row r="150" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS150" s="13">
+        <v>146</v>
+      </c>
+      <c r="BT150" s="13">
+        <v>28</v>
+      </c>
+      <c r="BU150" s="13">
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="BV150" s="13">
+        <v>1.3516363636363633</v>
+      </c>
+      <c r="BW150" s="13">
+        <v>55.558909090909104</v>
+      </c>
+    </row>
+    <row r="151" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS151" s="13">
+        <v>147</v>
+      </c>
+      <c r="BT151" s="13">
+        <v>28</v>
+      </c>
+      <c r="BU151" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="BV151" s="13">
+        <v>1.4159999999999997</v>
+      </c>
+      <c r="BW151" s="13">
+        <v>56.974909090909101</v>
+      </c>
+    </row>
+    <row r="152" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS152" s="13">
+        <v>148</v>
+      </c>
+      <c r="BT152" s="13">
+        <v>28</v>
+      </c>
+      <c r="BU152" s="13">
+        <v>0.20909090909090908</v>
+      </c>
+      <c r="BV152" s="13">
+        <v>1.4803636363636359</v>
+      </c>
+      <c r="BW152" s="13">
+        <v>58.455272727272735</v>
+      </c>
+    </row>
+    <row r="153" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS153" s="13">
+        <v>149</v>
+      </c>
+      <c r="BT153" s="13">
+        <v>28</v>
+      </c>
+      <c r="BU153" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV153" s="13">
+        <v>1.5447272727272723</v>
+      </c>
+      <c r="BW153" s="13">
+        <v>60.000000000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="71:75" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="BS154" s="13">
+        <v>150</v>
+      </c>
+      <c r="BT154" s="13">
+        <v>28</v>
+      </c>
+      <c r="BU154" s="13">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="BV154" s="13">
+        <v>1.5447272727272723</v>
+      </c>
+      <c r="BW154" s="13">
+        <v>61.544727272727279</v>
+      </c>
     </row>
     <row r="264" spans="3:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C264" s="20" t="s">
@@ -11712,7 +14469,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="BS3:BW3"/>
+    <mergeCell ref="BZ3:CA3"/>
     <mergeCell ref="A3:U3"/>
     <mergeCell ref="BF3:BN3"/>
     <mergeCell ref="AN3:BC3"/>

--- a/策划案/镇魂街/节奏总表.xlsx
+++ b/策划案/镇魂街/节奏总表.xlsx
@@ -12,7 +12,8 @@
     <sheet name="玩法开放结点" sheetId="66" r:id="rId3"/>
     <sheet name="养成结点" sheetId="67" r:id="rId4"/>
     <sheet name="养成结点验证" sheetId="68" r:id="rId5"/>
-    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="69" r:id="rId6"/>
+    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="寄灵人">#REF!</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="405">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1477,6 +1478,10 @@
     <t>时间等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>队伍等级达到31级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2021,7 +2026,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2075,6 +2080,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2120,22 +2140,10 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
@@ -2153,8 +2161,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2505,12 +2513,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2519,10 +2527,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="33" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2533,26 +2541,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2561,10 +2569,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2573,151 +2581,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2730,12 +2734,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2763,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BZ4" sqref="BZ4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2876,10 +2884,10 @@
       <c r="BU3" s="41"/>
       <c r="BV3" s="41"/>
       <c r="BW3" s="41"/>
-      <c r="BZ3" s="47" t="s">
+      <c r="BZ3" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="CA3" s="47"/>
+      <c r="CA3" s="42"/>
     </row>
     <row r="4" spans="1:79" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -8745,7 +8753,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -8761,8 +8769,8 @@
       <c r="E34" s="13">
         <v>95.869999999999976</v>
       </c>
-      <c r="F34" s="13">
-        <v>208.41</v>
+      <c r="F34" s="48" t="s">
+        <v>404</v>
       </c>
       <c r="G34" s="13">
         <v>84.59</v>
@@ -11372,10 +11380,10 @@
       <c r="BW64" s="13">
         <v>5.1709090909090918</v>
       </c>
-      <c r="BZ64">
+      <c r="BZ64" s="13">
         <v>60</v>
       </c>
-      <c r="CA64">
+      <c r="CA64" s="13">
         <v>148</v>
       </c>
     </row>
@@ -14488,7 +14496,7 @@
   <dimension ref="A4:W113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16782,7 +16790,7 @@
   <dimension ref="A4:BC66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BC65" sqref="AV65:BC65"/>
+      <selection activeCell="AY26" sqref="AY26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16849,62 +16857,62 @@
       <c r="BC4" s="41"/>
     </row>
     <row r="5" spans="1:55" ht="15" x14ac:dyDescent="0.2">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42" t="s">
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42" t="s">
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42" t="s">
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42" t="s">
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
     </row>
     <row r="6" spans="1:55" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -26931,8 +26939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CK42"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CG7" sqref="CG7:CG33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27072,25 +27080,25 @@
       <c r="CK4" s="41"/>
     </row>
     <row r="5" spans="1:89" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -27128,7 +27136,7 @@
       <c r="CK5" s="17"/>
     </row>
     <row r="6" spans="1:89" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="12" t="s">
         <v>283</v>
       </c>
@@ -27400,14 +27408,8 @@
         <f>MATCH($B7,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>1</v>
       </c>
-      <c r="I7" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="13" t="e">
-        <f>MATCH(养成结点验证!I7,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="13">
         <f>MATCH($B7,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>1</v>
@@ -27672,14 +27674,8 @@
         <f>MATCH($B8,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>2</v>
       </c>
-      <c r="I8" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="13" t="e">
-        <f>MATCH(养成结点验证!I8,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="13">
         <f>MATCH($B8,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>2</v>
@@ -27944,14 +27940,8 @@
         <f>MATCH($B9,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>3</v>
       </c>
-      <c r="I9" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="13" t="e">
-        <f>MATCH(养成结点验证!I9,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="13">
         <f>MATCH($B9,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>3</v>
@@ -28216,14 +28206,8 @@
         <f>MATCH($B10,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>4</v>
       </c>
-      <c r="I10" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="13" t="e">
-        <f>MATCH(养成结点验证!I10,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="13">
         <f>MATCH($B10,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>4</v>
@@ -28488,14 +28472,8 @@
         <f>MATCH($B11,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>4</v>
       </c>
-      <c r="I11" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="13" t="e">
-        <f>MATCH(养成结点验证!I11,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="13">
         <f>MATCH($B11,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>4</v>
@@ -28760,14 +28738,8 @@
         <f>MATCH($B12,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>5</v>
       </c>
-      <c r="I12" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="13" t="e">
-        <f>MATCH(养成结点验证!I12,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="13">
         <f>MATCH($B12,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>5</v>
@@ -29032,14 +29004,8 @@
         <f>MATCH($B13,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>5</v>
       </c>
-      <c r="I13" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="13" t="e">
-        <f>MATCH(养成结点验证!I13,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="13">
         <f>MATCH($B13,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>5</v>
@@ -29304,14 +29270,8 @@
         <f>MATCH($B14,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>6</v>
       </c>
-      <c r="I14" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="13" t="e">
-        <f>MATCH(养成结点验证!I14,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="13">
         <f>MATCH($B14,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>6</v>
@@ -29576,14 +29536,8 @@
         <f>MATCH($B15,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>7</v>
       </c>
-      <c r="I15" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="13" t="e">
-        <f>MATCH(养成结点验证!I15,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="13">
         <f>MATCH($B15,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>7</v>
@@ -29848,14 +29802,8 @@
         <f>MATCH($B16,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>8</v>
       </c>
-      <c r="I16" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="13" t="e">
-        <f>MATCH(养成结点验证!I16,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="13">
         <f>MATCH($B16,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>8</v>
@@ -30120,14 +30068,8 @@
         <f>MATCH($B17,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>9</v>
       </c>
-      <c r="I17" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="13" t="e">
-        <f>MATCH(养成结点验证!I17,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="13">
         <f>MATCH($B17,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>9</v>
@@ -30392,14 +30334,8 @@
         <f>MATCH($B18,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>10</v>
       </c>
-      <c r="I18" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="13" t="e">
-        <f>MATCH(养成结点验证!I18,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="13">
         <f>MATCH($B18,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>10</v>
@@ -30664,14 +30600,8 @@
         <f>MATCH($B19,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>10</v>
       </c>
-      <c r="I19" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="13" t="e">
-        <f>MATCH(养成结点验证!I19,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="13">
         <f>MATCH($B19,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>10</v>
@@ -30936,14 +30866,8 @@
         <f>MATCH($B20,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>11</v>
       </c>
-      <c r="I20" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="13" t="e">
-        <f>MATCH(养成结点验证!I20,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="13">
         <f>MATCH($B20,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>11</v>
@@ -31208,14 +31132,8 @@
         <f>MATCH($B21,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>12</v>
       </c>
-      <c r="I21" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="13" t="e">
-        <f>MATCH(养成结点验证!I21,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="13">
         <f>MATCH($B21,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>12</v>
@@ -31480,14 +31398,8 @@
         <f>MATCH($B22,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>12</v>
       </c>
-      <c r="I22" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J22" s="13" t="e">
-        <f>MATCH(养成结点验证!I22,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="13">
         <f>MATCH($B22,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>12</v>
@@ -31752,14 +31664,8 @@
         <f>MATCH($B23,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>13</v>
       </c>
-      <c r="I23" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="13" t="e">
-        <f>MATCH(养成结点验证!I23,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="13">
         <f>MATCH($B23,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>13</v>
@@ -32024,14 +31930,8 @@
         <f>MATCH($B24,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>14</v>
       </c>
-      <c r="I24" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" s="13" t="e">
-        <f>MATCH(养成结点验证!I24,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="13">
         <f>MATCH($B24,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>14</v>
@@ -32296,14 +32196,8 @@
         <f>MATCH($B25,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>14</v>
       </c>
-      <c r="I25" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="13" t="e">
-        <f>MATCH(养成结点验证!I25,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="13">
         <f>MATCH($B25,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>14</v>
@@ -32505,14 +32399,8 @@
         <f>MATCH($B26,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>15</v>
       </c>
-      <c r="I26" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="13" t="e">
-        <f>MATCH(养成结点验证!I26,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="13">
         <f>MATCH($B26,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>15</v>
@@ -32714,14 +32602,8 @@
         <f>MATCH($B27,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>16</v>
       </c>
-      <c r="I27" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J27" s="13" t="e">
-        <f>MATCH(养成结点验证!I27,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="13">
         <f>MATCH($B27,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>16</v>
@@ -32923,14 +32805,8 @@
         <f>MATCH($B28,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>16</v>
       </c>
-      <c r="I28" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="13" t="e">
-        <f>MATCH(养成结点验证!I28,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="13">
         <f>MATCH($B28,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>16</v>
@@ -33132,14 +33008,8 @@
         <f>MATCH($B29,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>17</v>
       </c>
-      <c r="I29" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="13" t="e">
-        <f>MATCH(养成结点验证!I29,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="13">
         <f>MATCH($B29,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>17</v>
@@ -33341,14 +33211,8 @@
         <f>MATCH($B30,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>18</v>
       </c>
-      <c r="I30" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J30" s="13" t="e">
-        <f>MATCH(养成结点验证!I30,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="13">
         <f>MATCH($B30,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>18</v>
@@ -33550,14 +33414,8 @@
         <f>MATCH($B31,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>18</v>
       </c>
-      <c r="I31" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J31" s="13" t="e">
-        <f>MATCH(养成结点验证!I31,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="13">
         <f>MATCH($B31,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>18</v>
@@ -33759,14 +33617,8 @@
         <f>MATCH($B32,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>19</v>
       </c>
-      <c r="I32" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J32" s="13" t="e">
-        <f>MATCH(养成结点验证!I32,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="13">
         <f>MATCH($B32,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>19</v>
@@ -33968,14 +33820,8 @@
         <f>MATCH($B33,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
       </c>
-      <c r="I33" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J33" s="13" t="e">
-        <f>MATCH(养成结点验证!I33,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="13">
         <f>MATCH($B33,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
@@ -34177,14 +34023,8 @@
         <f>MATCH($B34,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
       </c>
-      <c r="I34" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J34" s="13" t="e">
-        <f>MATCH(养成结点验证!I34,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="13">
         <f>MATCH($B34,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
@@ -34323,14 +34163,8 @@
         <f>MATCH($B35,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
       </c>
-      <c r="I35" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J35" s="13" t="e">
-        <f>MATCH(养成结点验证!I35,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="13">
         <f>MATCH($B35,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
@@ -34469,14 +34303,8 @@
         <f>MATCH($B36,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
       </c>
-      <c r="I36" s="13" t="e">
-        <f>时间节点!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J36" s="13" t="e">
-        <f>MATCH(养成结点验证!I36,时间节点!$AB$5:$AB$57,1)-1</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="13">
         <f>MATCH($B36,时间节点!$AH$5:$AH$25,1)-1</f>
         <v>20</v>
@@ -35234,6 +35062,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD223"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/策划案/镇魂街/节奏总表.xlsx
+++ b/策划案/镇魂街/节奏总表.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="404">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1478,10 +1478,6 @@
     <t>时间等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>队伍等级达到31级</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -2026,7 +2022,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2080,21 +2076,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2140,6 +2121,21 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2160,9 +2156,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2513,12 +2506,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2527,10 +2520,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2541,26 +2534,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2569,10 +2562,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2581,147 +2574,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2734,16 +2731,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2771,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8753,7 +8746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:79" ht="24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>30</v>
       </c>
@@ -8769,8 +8762,8 @@
       <c r="E34" s="13">
         <v>95.869999999999976</v>
       </c>
-      <c r="F34" s="48" t="s">
-        <v>404</v>
+      <c r="F34" s="13">
+        <v>123.82</v>
       </c>
       <c r="G34" s="13">
         <v>84.59</v>
